--- a/Week4 Pre/CT Project Plan 6-26-2020.xlsx
+++ b/Week4 Pre/CT Project Plan 6-26-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A8515F-D382-BD42-9533-32A596973754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDCA6B7-66CE-4A15-8394-6D937D3A20DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="26728" windowHeight="14525" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -871,6 +871,15 @@
   </cellStyles>
   <dxfs count="79">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1196,15 +1205,6 @@
           <color theme="0"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2513,15 +2513,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>26314</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>65784</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>230245</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>243401</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2572,9 +2572,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -2856,25 +2856,25 @@
   </sheetPr>
   <dimension ref="A1:BL52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="64" width="3.5" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.6328125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="2.6328125" customWidth="1"/>
+    <col min="9" max="64" width="3.453125" customWidth="1"/>
+    <col min="69" max="70" width="10.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="AE2" s="59"/>
       <c r="AF2" s="59"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="G3" s="64"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="BK4" s="41"/>
       <c r="BL4" s="41"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="BK6" s="44"/>
       <c r="BL6" s="45"/>
     </row>
-    <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" ht="30.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="BK8" s="35"/>
       <c r="BL8" s="35"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="49" t="s">
         <v>42</v>
@@ -4170,7 +4170,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="49" t="s">
         <v>43</v>
@@ -4416,7 +4416,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="49" t="s">
         <v>56</v>
@@ -4494,7 +4494,7 @@
       <c r="BK12" s="37"/>
       <c r="BL12" s="37"/>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="33.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="49" t="s">
         <v>44</v>
@@ -4740,7 +4740,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="49" t="s">
         <v>58</v>
@@ -4983,7 +4983,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="49" t="s">
         <v>62</v>
@@ -5061,7 +5061,7 @@
       <c r="BK15" s="37"/>
       <c r="BL15" s="37"/>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="49" t="s">
         <v>59</v>
@@ -5139,7 +5139,7 @@
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
     </row>
-    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="49" t="s">
         <v>63</v>
@@ -5217,7 +5217,7 @@
       <c r="BK17" s="37"/>
       <c r="BL17" s="37"/>
     </row>
-    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="49" t="s">
         <v>61</v>
@@ -5295,7 +5295,7 @@
       <c r="BK18" s="37"/>
       <c r="BL18" s="37"/>
     </row>
-    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="49" t="s">
         <v>45</v>
@@ -5541,7 +5541,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="55" t="s">
         <v>64</v>
@@ -5609,7 +5609,7 @@
       <c r="BK20" s="37"/>
       <c r="BL20" s="37"/>
     </row>
-    <row r="21" spans="1:64" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" s="2" customFormat="1" ht="26.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="49" t="s">
         <v>65</v>
@@ -5687,7 +5687,7 @@
       <c r="BK21" s="37"/>
       <c r="BL21" s="37"/>
     </row>
-    <row r="22" spans="1:64" s="2" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="49" t="s">
         <v>66</v>
@@ -5768,7 +5768,7 @@
       <c r="BK22" s="37"/>
       <c r="BL22" s="37"/>
     </row>
-    <row r="23" spans="1:64" s="2" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="49" t="s">
         <v>67</v>
@@ -5849,7 +5849,7 @@
       <c r="BK23" s="37"/>
       <c r="BL23" s="37"/>
     </row>
-    <row r="24" spans="1:64" s="2" customFormat="1" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" s="2" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="49" t="s">
         <v>68</v>
@@ -5927,7 +5927,7 @@
       <c r="BK24" s="37"/>
       <c r="BL24" s="37"/>
     </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="55" t="s">
         <v>35</v>
@@ -6160,7 +6160,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:64" s="2" customFormat="1" ht="51.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="49" t="s">
         <v>46</v>
@@ -6403,7 +6403,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="49" t="s">
         <v>47</v>
@@ -6415,7 +6415,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F27" s="31">
         <v>44000</v>
@@ -6484,7 +6484,7 @@
       <c r="BK27" s="37"/>
       <c r="BL27" s="37"/>
     </row>
-    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="49" t="s">
         <v>50</v>
@@ -6565,7 +6565,7 @@
       <c r="BK28" s="37"/>
       <c r="BL28" s="37"/>
     </row>
-    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="49" t="s">
         <v>51</v>
@@ -6788,7 +6788,7 @@
         <v/>
       </c>
       <c r="BH29" s="37" t="str">
-        <f t="shared" ref="BH29:BQ30" ca="1" si="27">IF(AND($C28="Goal",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ref="BH29:BL30" ca="1" si="27">IF(AND($C28="Goal",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BI29" s="37" t="str">
@@ -6808,7 +6808,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="49" t="s">
         <v>53</v>
@@ -7051,7 +7051,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="49" t="s">
         <v>52</v>
@@ -7132,7 +7132,7 @@
       <c r="BK31" s="37"/>
       <c r="BL31" s="37"/>
     </row>
-    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="49" t="s">
         <v>69</v>
@@ -7213,7 +7213,7 @@
       <c r="BK32" s="37"/>
       <c r="BL32" s="37"/>
     </row>
-    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="49" t="s">
         <v>70</v>
@@ -7439,7 +7439,7 @@
         <v/>
       </c>
       <c r="BH33" s="37" t="str">
-        <f t="shared" ref="BH33:BQ35" ca="1" si="33">IF(AND($C34="Goal",BH$5&gt;=$F34,BH$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BH$5&gt;=$F34,BH$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ref="BH33:BL35" ca="1" si="33">IF(AND($C34="Goal",BH$5&gt;=$F34,BH$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BH$5&gt;=$F34,BH$5&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BI33" s="37" t="str">
@@ -7459,7 +7459,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="57" t="s">
         <v>71</v>
@@ -7702,7 +7702,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="55" t="s">
         <v>38</v>
@@ -7935,7 +7935,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="49" t="s">
         <v>38</v>
@@ -8016,7 +8016,7 @@
       <c r="BK36" s="37"/>
       <c r="BL36" s="37"/>
     </row>
-    <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="49" t="s">
         <v>48</v>
@@ -8094,7 +8094,7 @@
       <c r="BK37" s="37"/>
       <c r="BL37" s="37"/>
     </row>
-    <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="49" t="s">
         <v>49</v>
@@ -8245,7 +8245,7 @@
         <v/>
       </c>
       <c r="AP38" s="37" t="str">
-        <f t="shared" ref="AP38:BU38" ca="1" si="35">IF(AND($C37="Goal",AP$5&gt;=$F37,AP$5&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AP$5&gt;=$F37,AP$5&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ref="AP38:BL38" ca="1" si="35">IF(AND($C37="Goal",AP$5&gt;=$F37,AP$5&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AP$5&gt;=$F37,AP$5&lt;=$F37+$G37-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ38" s="37" t="str">
@@ -8337,7 +8337,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:64" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:64" s="2" customFormat="1" ht="29.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="49" t="s">
         <v>45</v>
@@ -8415,7 +8415,7 @@
       <c r="BK39" s="37"/>
       <c r="BL39" s="37"/>
     </row>
-    <row r="40" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="55" t="s">
         <v>36</v>
@@ -8486,7 +8486,7 @@
       <c r="BK40" s="37"/>
       <c r="BL40" s="37"/>
     </row>
-    <row r="41" spans="1:64" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:64" s="2" customFormat="1" ht="29.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="49" t="s">
         <v>41</v>
@@ -8567,7 +8567,7 @@
       <c r="BK41" s="37"/>
       <c r="BL41" s="37"/>
     </row>
-    <row r="42" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="49" t="s">
         <v>39</v>
@@ -8813,7 +8813,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="49" t="s">
         <v>41</v>
@@ -9059,7 +9059,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>2</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="15" t="s">
         <v>30</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="49"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -9788,7 +9788,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="49"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -10020,7 +10020,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="56" t="s">
         <v>18</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="4:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D49" s="5"/>
       <c r="G49" s="16"/>
       <c r="I49" s="37" t="str">
@@ -10482,7 +10482,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="4:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:64" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D50" s="6"/>
       <c r="I50" s="36"/>
       <c r="J50" s="37" t="str">
@@ -10706,7 +10706,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="4:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J51" s="37" t="str">
         <f t="shared" ref="J51:AO51" ca="1" si="55">IF(AND($C47="Goal",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),2,IF(AND($C47="Milestone",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),1,""))</f>
         <v/>
@@ -10928,7 +10928,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="4:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:64" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
@@ -11213,53 +11213,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22">
-    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
       <formula>AND($C22="Low Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
       <formula>AND($C22="High Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>AND($C22="On Track",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>AND($C22="Med Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>AND(LEN($C22)=0,X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>AND($C23="Low Risk",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>AND($C23="High Risk",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>AND($C23="On Track",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>AND($C23="Med Risk",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>AND(LEN($C23)=0,X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>AND($C23="Low Risk",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>AND($C23="High Risk",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>AND($C23="On Track",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>AND($C23="Med Risk",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>AND(LEN($C23)=0,Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11292,15 +11292,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>26314</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
+                    <xdr:rowOff>65784</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:colOff>230245</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>243401</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11451,33 +11451,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.95" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>

--- a/Week4 Pre/CT Project Plan 6-26-2020.xlsx
+++ b/Week4 Pre/CT Project Plan 6-26-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDCA6B7-66CE-4A15-8394-6D937D3A20DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41817BD-6D87-F642-B665-5EA980F9F596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="26728" windowHeight="14525" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26720" windowHeight="14520" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>About This Template</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Demo App Release</t>
+  </si>
+  <si>
+    <t>Research and design dashboard</t>
   </si>
 </sst>
 </file>
@@ -869,15 +872,23 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="85">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2190,6 +2201,115 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -2250,6 +2370,15 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -2396,20 +2525,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="78"/>
-      <tableStyleElement type="headerRow" dxfId="77"/>
-      <tableStyleElement type="firstRowStripe" dxfId="76"/>
+      <tableStyleElement type="wholeTable" dxfId="84"/>
+      <tableStyleElement type="headerRow" dxfId="83"/>
+      <tableStyleElement type="firstRowStripe" dxfId="82"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="75"/>
-      <tableStyleElement type="headerRow" dxfId="74"/>
-      <tableStyleElement type="totalRow" dxfId="73"/>
-      <tableStyleElement type="firstColumn" dxfId="72"/>
-      <tableStyleElement type="lastColumn" dxfId="71"/>
-      <tableStyleElement type="firstRowStripe" dxfId="70"/>
-      <tableStyleElement type="secondRowStripe" dxfId="69"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="68"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="67"/>
+      <tableStyleElement type="wholeTable" dxfId="81"/>
+      <tableStyleElement type="headerRow" dxfId="80"/>
+      <tableStyleElement type="totalRow" dxfId="79"/>
+      <tableStyleElement type="firstColumn" dxfId="78"/>
+      <tableStyleElement type="lastColumn" dxfId="77"/>
+      <tableStyleElement type="firstRowStripe" dxfId="76"/>
+      <tableStyleElement type="secondRowStripe" dxfId="75"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="74"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="73"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2513,15 +2642,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>26314</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>65784</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
-          <xdr:colOff>230245</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>243401</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2562,8 +2691,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:G47" totalsRowShown="0">
-  <autoFilter ref="B7:G47" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:G48" totalsRowShown="0">
+  <autoFilter ref="B7:G48" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2572,9 +2701,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="70"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -2854,27 +2983,27 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL52"/>
+  <dimension ref="A1:BL53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B25" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="2.6328125" customWidth="1"/>
-    <col min="9" max="64" width="3.453125" customWidth="1"/>
-    <col min="69" max="70" width="10.36328125"/>
+    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="64" width="3.5" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2913,7 +3042,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2957,7 +3086,7 @@
       <c r="AE2" s="59"/>
       <c r="AF2" s="59"/>
     </row>
-    <row r="3" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -2975,7 +3104,7 @@
       <c r="G3" s="64"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -3067,7 +3196,7 @@
       <c r="BK4" s="41"/>
       <c r="BL4" s="41"/>
     </row>
-    <row r="5" spans="1:64" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -3171,7 +3300,7 @@
         <v>44005</v>
       </c>
       <c r="AF5" s="47">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">AE5+1</f>
         <v>44006</v>
       </c>
       <c r="AG5" s="47">
@@ -3303,7 +3432,7 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -3371,7 +3500,7 @@
       <c r="BK6" s="44"/>
       <c r="BL6" s="45"/>
     </row>
-    <row r="7" spans="1:64" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -3619,7 +3748,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
@@ -3686,7 +3815,7 @@
       <c r="BK8" s="35"/>
       <c r="BL8" s="35"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
@@ -3924,7 +4053,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="49" t="s">
         <v>42</v>
@@ -4170,7 +4299,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="49" t="s">
         <v>43</v>
@@ -4416,7 +4545,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="49" t="s">
         <v>56</v>
@@ -4494,7 +4623,7 @@
       <c r="BK12" s="37"/>
       <c r="BL12" s="37"/>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="33.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="49" t="s">
         <v>44</v>
@@ -4740,7 +4869,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="49" t="s">
         <v>58</v>
@@ -4983,7 +5112,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="49" t="s">
         <v>62</v>
@@ -5061,7 +5190,7 @@
       <c r="BK15" s="37"/>
       <c r="BL15" s="37"/>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="49" t="s">
         <v>59</v>
@@ -5139,7 +5268,7 @@
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
     </row>
-    <row r="17" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="49" t="s">
         <v>63</v>
@@ -5217,7 +5346,7 @@
       <c r="BK17" s="37"/>
       <c r="BL17" s="37"/>
     </row>
-    <row r="18" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="49" t="s">
         <v>61</v>
@@ -5295,7 +5424,7 @@
       <c r="BK18" s="37"/>
       <c r="BL18" s="37"/>
     </row>
-    <row r="19" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="49" t="s">
         <v>45</v>
@@ -5541,7 +5670,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="55" t="s">
         <v>64</v>
@@ -5609,7 +5738,7 @@
       <c r="BK20" s="37"/>
       <c r="BL20" s="37"/>
     </row>
-    <row r="21" spans="1:64" s="2" customFormat="1" ht="26.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="49" t="s">
         <v>65</v>
@@ -5687,7 +5816,7 @@
       <c r="BK21" s="37"/>
       <c r="BL21" s="37"/>
     </row>
-    <row r="22" spans="1:64" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="2" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="49" t="s">
         <v>66</v>
@@ -5768,7 +5897,7 @@
       <c r="BK22" s="37"/>
       <c r="BL22" s="37"/>
     </row>
-    <row r="23" spans="1:64" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="2" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="49" t="s">
         <v>67</v>
@@ -5849,7 +5978,7 @@
       <c r="BK23" s="37"/>
       <c r="BL23" s="37"/>
     </row>
-    <row r="24" spans="1:64" s="2" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="2" customFormat="1" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="49" t="s">
         <v>68</v>
@@ -5927,7 +6056,7 @@
       <c r="BK24" s="37"/>
       <c r="BL24" s="37"/>
     </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="55" t="s">
         <v>35</v>
@@ -6160,7 +6289,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="51.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="49" t="s">
         <v>46</v>
@@ -6403,7 +6532,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="49" t="s">
         <v>47</v>
@@ -6484,7 +6613,7 @@
       <c r="BK27" s="37"/>
       <c r="BL27" s="37"/>
     </row>
-    <row r="28" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="49" t="s">
         <v>50</v>
@@ -6565,7 +6694,7 @@
       <c r="BK28" s="37"/>
       <c r="BL28" s="37"/>
     </row>
-    <row r="29" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="49" t="s">
         <v>51</v>
@@ -6808,7 +6937,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="49" t="s">
         <v>53</v>
@@ -7051,7 +7180,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="49" t="s">
         <v>52</v>
@@ -7073,7 +7202,7 @@
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="37" t="str">
-        <f ca="1">IF(AND($C34="Goal",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1),1,""))</f>
+        <f ca="1">IF(AND($C35="Goal",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="J31" s="37"/>
@@ -7132,31 +7261,28 @@
       <c r="BK31" s="37"/>
       <c r="BL31" s="37"/>
     </row>
-    <row r="32" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E32" s="30">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F32" s="31">
-        <v>44000</v>
+        <v>44006</v>
       </c>
       <c r="G32" s="32">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H32" s="26"/>
-      <c r="I32" s="37" t="str">
-        <f ca="1">IF(AND($C35="Goal",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
@@ -7213,10 +7339,10 @@
       <c r="BK32" s="37"/>
       <c r="BL32" s="37"/>
     </row>
-    <row r="33" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>11</v>
@@ -7238,251 +7364,89 @@
         <f ca="1">IF(AND($C36="Goal",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
-      <c r="J33" s="37" t="str">
-        <f t="shared" ref="J33:S35" ca="1" si="28">IF(AND($C34="Goal",J$5&gt;=$F34,J$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",J$5&gt;=$F34,J$5&lt;=$F34+$G34-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K33" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="L33" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="M33" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="N33" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="O33" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="P33" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Q33" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="R33" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="S33" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="T33" s="37" t="str">
-        <f t="shared" ref="T33:AC35" ca="1" si="29">IF(AND($C34="Goal",T$5&gt;=$F34,T$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",T$5&gt;=$F34,T$5&lt;=$F34+$G34-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U33" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="V33" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="W33" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="X33" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Y33" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Z33" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AA33" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AB33" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AC33" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AD33" s="37" t="str">
-        <f t="shared" ref="AD33:AM35" ca="1" si="30">IF(AND($C34="Goal",AD$5&gt;=$F34,AD$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AD$5&gt;=$F34,AD$5&lt;=$F34+$G34-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE33" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AF33" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AG33" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AH33" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AI33" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AK33" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AL33" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AM33" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AN33" s="37" t="str">
-        <f t="shared" ref="AN33:AW35" ca="1" si="31">IF(AND($C34="Goal",AN$5&gt;=$F34,AN$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AN$5&gt;=$F34,AN$5&lt;=$F34+$G34-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO33" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AP33" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AQ33" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AR33" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AS33" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AT33" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AU33" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AV33" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AW33" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AX33" s="37" t="str">
-        <f t="shared" ref="AX33:BG35" ca="1" si="32">IF(AND($C34="Goal",AX$5&gt;=$F34,AX$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AX$5&gt;=$F34,AX$5&lt;=$F34+$G34-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY33" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AZ33" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BA33" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BB33" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BC33" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BD33" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BE33" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BF33" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BG33" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BH33" s="37" t="str">
-        <f t="shared" ref="BH33:BL35" ca="1" si="33">IF(AND($C34="Goal",BH$5&gt;=$F34,BH$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BH$5&gt;=$F34,BH$5&lt;=$F34+$G34-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI33" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="BJ33" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="BK33" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="BL33" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AP33" s="37"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AS33" s="37"/>
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AV33" s="37"/>
+      <c r="AW33" s="37"/>
+      <c r="AX33" s="37"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="37"/>
+      <c r="BA33" s="37"/>
+      <c r="BB33" s="37"/>
+      <c r="BC33" s="37"/>
+      <c r="BD33" s="37"/>
+      <c r="BE33" s="37"/>
+      <c r="BF33" s="37"/>
+      <c r="BG33" s="37"/>
+      <c r="BH33" s="37"/>
+      <c r="BI33" s="37"/>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="37"/>
+      <c r="BL33" s="37"/>
     </row>
-    <row r="34" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
-      <c r="B34" s="57" t="s">
-        <v>71</v>
+      <c r="B34" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E34" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="31">
-        <v>44058</v>
+        <v>44000</v>
       </c>
       <c r="G34" s="32">
         <v>1</v>
       </c>
       <c r="H34" s="26"/>
-      <c r="I34" s="37"/>
+      <c r="I34" s="37" t="str">
+        <f ca="1">IF(AND($C37="Goal",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
       <c r="J34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ref="J34:S36" ca="1" si="28">IF(AND($C35="Goal",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="K34" s="37" t="str">
@@ -7522,7 +7486,7 @@
         <v/>
       </c>
       <c r="T34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ref="T34:AC36" ca="1" si="29">IF(AND($C35="Goal",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="U34" s="37" t="str">
@@ -7562,7 +7526,7 @@
         <v/>
       </c>
       <c r="AD34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ref="AD34:AM36" ca="1" si="30">IF(AND($C35="Goal",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AE34" s="37" t="str">
@@ -7602,7 +7566,7 @@
         <v/>
       </c>
       <c r="AN34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ref="AN34:AW36" ca="1" si="31">IF(AND($C35="Goal",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AO34" s="37" t="str">
@@ -7642,7 +7606,7 @@
         <v/>
       </c>
       <c r="AX34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ref="AX34:BG36" ca="1" si="32">IF(AND($C35="Goal",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AY34" s="37" t="str">
@@ -7682,7 +7646,7 @@
         <v/>
       </c>
       <c r="BH34" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ref="BH34:BL36" ca="1" si="33">IF(AND($C35="Goal",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BI34" s="37" t="str">
@@ -7702,16 +7666,26 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
-      <c r="B35" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
+      <c r="B35" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="30">
+        <v>0</v>
+      </c>
+      <c r="F35" s="31">
+        <v>44058</v>
+      </c>
+      <c r="G35" s="32">
+        <v>1</v>
+      </c>
       <c r="H35" s="26"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37" t="str">
@@ -7935,94 +7909,246 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="30">
-        <v>0</v>
-      </c>
-      <c r="F36" s="31">
-        <v>44061</v>
-      </c>
-      <c r="G36" s="32">
-        <v>4</v>
-      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="26"/>
-      <c r="I36" s="37" t="str">
-        <f ca="1">IF(AND($C37="Goal",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="37"/>
-      <c r="AO36" s="37"/>
-      <c r="AP36" s="37"/>
-      <c r="AQ36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AS36" s="37"/>
-      <c r="AT36" s="37"/>
-      <c r="AU36" s="37"/>
-      <c r="AV36" s="37"/>
-      <c r="AW36" s="37"/>
-      <c r="AX36" s="37"/>
-      <c r="AY36" s="37"/>
-      <c r="AZ36" s="37"/>
-      <c r="BA36" s="37"/>
-      <c r="BB36" s="37"/>
-      <c r="BC36" s="37"/>
-      <c r="BD36" s="37"/>
-      <c r="BE36" s="37"/>
-      <c r="BF36" s="37"/>
-      <c r="BG36" s="37"/>
-      <c r="BH36" s="37"/>
-      <c r="BI36" s="37"/>
-      <c r="BJ36" s="37"/>
-      <c r="BK36" s="37"/>
-      <c r="BL36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S36" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="U36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="V36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="W36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="X36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="Y36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="Z36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC36" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AE36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AF36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AG36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AH36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AI36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AJ36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AK36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AL36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AM36" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AN36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AO36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AP36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AQ36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AR36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AS36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AT36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AU36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AV36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AW36" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AX36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AY36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AZ36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BA36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BB36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BC36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BD36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BE36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BF36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BG36" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BH36" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BI36" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BJ36" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BK36" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BL36" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="37" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="49" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>54</v>
@@ -8034,10 +8160,13 @@
         <v>44061</v>
       </c>
       <c r="G37" s="32">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H37" s="26"/>
-      <c r="I37" s="37"/>
+      <c r="I37" s="37" t="str">
+        <f ca="1">IF(AND($C38="Goal",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),1,""))</f>
+        <v/>
+      </c>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
@@ -8094,13 +8223,13 @@
       <c r="BK37" s="37"/>
       <c r="BL37" s="37"/>
     </row>
-    <row r="38" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>54</v>
@@ -8109,241 +8238,76 @@
         <v>0</v>
       </c>
       <c r="F38" s="31">
-        <v>44068</v>
+        <v>44061</v>
       </c>
       <c r="G38" s="32">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="37"/>
-      <c r="J38" s="37" t="str">
-        <f t="shared" ref="J38:AO38" ca="1" si="34">IF(AND($C37="Goal",J$5&gt;=$F37,J$5&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",J$5&gt;=$F37,J$5&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="L38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="M38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="N38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="O38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="P38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Q38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="R38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="S38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="T38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="U38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="V38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="W38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="X38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Y38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Z38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AA38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AB38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AC38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AD38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AE38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AF38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AG38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AH38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AI38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AK38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AL38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AM38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AN38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AO38" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AP38" s="37" t="str">
-        <f t="shared" ref="AP38:BL38" ca="1" si="35">IF(AND($C37="Goal",AP$5&gt;=$F37,AP$5&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AP$5&gt;=$F37,AP$5&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AR38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AS38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AT38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AU38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AV38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AW38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AX38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AY38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AZ38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BA38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BB38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BC38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BD38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BE38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BF38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BG38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL38" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37"/>
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="37"/>
+      <c r="BI38" s="37"/>
+      <c r="BJ38" s="37"/>
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
     </row>
-    <row r="39" spans="1:64" s="2" customFormat="1" ht="29.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="49" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>54</v>
@@ -8352,84 +8316,256 @@
         <v>0</v>
       </c>
       <c r="F39" s="31">
-        <v>44071</v>
+        <v>44068</v>
       </c>
       <c r="G39" s="32">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="37"/>
-      <c r="AK39" s="37"/>
-      <c r="AL39" s="37"/>
-      <c r="AM39" s="37"/>
-      <c r="AN39" s="37"/>
-      <c r="AO39" s="37"/>
-      <c r="AP39" s="37"/>
-      <c r="AQ39" s="37"/>
-      <c r="AR39" s="37"/>
-      <c r="AS39" s="37"/>
-      <c r="AT39" s="37"/>
-      <c r="AU39" s="37"/>
-      <c r="AV39" s="37"/>
-      <c r="AW39" s="37"/>
-      <c r="AX39" s="37"/>
-      <c r="AY39" s="37"/>
-      <c r="AZ39" s="37"/>
-      <c r="BA39" s="37"/>
-      <c r="BB39" s="37"/>
-      <c r="BC39" s="37"/>
-      <c r="BD39" s="37"/>
-      <c r="BE39" s="37"/>
-      <c r="BF39" s="37"/>
-      <c r="BG39" s="37"/>
-      <c r="BH39" s="37"/>
-      <c r="BI39" s="37"/>
-      <c r="BJ39" s="37"/>
-      <c r="BK39" s="37"/>
-      <c r="BL39" s="37"/>
+      <c r="J39" s="37" t="str">
+        <f t="shared" ref="J39:AO39" ca="1" si="34">IF(AND($C38="Goal",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="L39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="M39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="N39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="O39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="P39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="Q39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="R39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="S39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="T39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="U39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="V39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="W39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="X39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="Y39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="Z39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AA39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AB39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AC39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AD39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AE39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AF39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AH39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AI39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AJ39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AK39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AL39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AM39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AN39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AO39" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AP39" s="37" t="str">
+        <f t="shared" ref="AP39:BL39" ca="1" si="35">IF(AND($C38="Goal",AP$5&gt;=$F38,AP$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",AP$5&gt;=$F38,AP$5&lt;=$F38+$G38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AR39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AS39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AT39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AU39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AV39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AW39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AX39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AY39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AZ39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BA39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BB39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BC39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BD39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BE39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BF39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BG39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BH39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BI39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BJ39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BK39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BL39" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
     </row>
-    <row r="40" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="B40" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="30">
+        <v>0</v>
+      </c>
+      <c r="F40" s="31">
+        <v>44071</v>
+      </c>
+      <c r="G40" s="32">
+        <v>19</v>
+      </c>
       <c r="H40" s="26"/>
-      <c r="I40" s="37" t="str">
-        <f t="shared" ref="I40:I49" ca="1" si="36">IF(AND($C38="Goal",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
       <c r="L40" s="37"/>
@@ -8486,29 +8622,19 @@
       <c r="BK40" s="37"/>
       <c r="BL40" s="37"/>
     </row>
-    <row r="41" spans="1:64" s="2" customFormat="1" ht="29.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
-      <c r="B41" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="30">
-        <v>1</v>
-      </c>
-      <c r="F41" s="31">
-        <v>43984</v>
-      </c>
-      <c r="G41" s="32">
-        <v>2</v>
-      </c>
+      <c r="B41" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="26"/>
       <c r="I41" s="37" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ref="I41:I50" ca="1" si="36">IF(AND($C39="Goal",I$5&gt;=$F39,I$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",I$5&gt;=$F39,I$5&lt;=$F39+$G39-1),1,""))</f>
         <v/>
       </c>
       <c r="J41" s="37"/>
@@ -8567,10 +8693,10 @@
       <c r="BK41" s="37"/>
       <c r="BL41" s="37"/>
     </row>
-    <row r="42" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>11</v>
@@ -8579,259 +8705,94 @@
         <v>55</v>
       </c>
       <c r="E42" s="30">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F42" s="31">
         <v>43984</v>
       </c>
       <c r="G42" s="32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="37" t="str">
-        <f t="shared" ref="J42:AO42" ca="1" si="37">IF(AND($C38="Goal",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="L42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="M42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="N42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="O42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="P42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="Q42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="R42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="S42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="T42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="U42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="V42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="W42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="X42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="Y42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="Z42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AA42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AB42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AC42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AD42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AE42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AF42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AG42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AH42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AI42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AJ42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AK42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AL42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AM42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AN42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AO42" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AP42" s="37" t="str">
-        <f t="shared" ref="AP42:BL42" ca="1" si="38">IF(AND($C38="Goal",AP$5&gt;=$F38,AP$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",AP$5&gt;=$F38,AP$5&lt;=$F38+$G38-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AR42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AS42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AT42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AU42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AV42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AW42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AX42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AY42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AZ42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BA42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BB42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BC42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BD42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BE42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BF42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BG42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BH42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BI42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BJ42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BK42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BL42" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="37"/>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="37"/>
+      <c r="AP42" s="37"/>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="37"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="37"/>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37"/>
+      <c r="AZ42" s="37"/>
+      <c r="BA42" s="37"/>
+      <c r="BB42" s="37"/>
+      <c r="BC42" s="37"/>
+      <c r="BD42" s="37"/>
+      <c r="BE42" s="37"/>
+      <c r="BF42" s="37"/>
+      <c r="BG42" s="37"/>
+      <c r="BH42" s="37"/>
+      <c r="BI42" s="37"/>
+      <c r="BJ42" s="37"/>
+      <c r="BK42" s="37"/>
+      <c r="BL42" s="37"/>
     </row>
-    <row r="43" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E43" s="30">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F43" s="31">
-        <v>43990</v>
+        <v>43984</v>
       </c>
       <c r="G43" s="32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="37" t="str">
@@ -8839,247 +8800,245 @@
         <v/>
       </c>
       <c r="J43" s="37" t="str">
-        <f t="shared" ref="J43:AO43" ca="1" si="39">IF(AND($C39="Goal",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ref="J43:AO43" ca="1" si="37">IF(AND($C39="Goal",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1),1,""))</f>
         <v/>
       </c>
       <c r="K43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="L43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="M43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="N43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="O43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="P43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="Q43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="R43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="S43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="T43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="U43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="V43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="W43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="X43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="Y43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="Z43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AA43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AB43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AC43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AD43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AE43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AF43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AG43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AH43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AI43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AJ43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AK43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AL43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AM43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AN43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AO43" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AP43" s="37" t="str">
-        <f t="shared" ref="AP43:BL43" ca="1" si="40">IF(AND($C39="Goal",AP$5&gt;=$F39,AP$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AP$5&gt;=$F39,AP$5&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ref="AP43:BL43" ca="1" si="38">IF(AND($C39="Goal",AP$5&gt;=$F39,AP$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AP$5&gt;=$F39,AP$5&lt;=$F39+$G39-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AR43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AS43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AT43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AU43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AV43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AW43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AX43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AY43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AZ43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BA43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BB43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BC43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BD43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BE43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BF43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BG43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BH43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BI43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BJ43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BK43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BL43" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
-        <v>2</v>
-      </c>
+    <row r="44" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
       <c r="B44" s="49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E44" s="30">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F44" s="31">
         <v>43990</v>
       </c>
       <c r="G44" s="32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="37" t="str">
@@ -9087,1903 +9046,2151 @@
         <v/>
       </c>
       <c r="J44" s="37" t="str">
-        <f t="shared" ref="J44:AO44" ca="1" si="41">IF(AND($C40="Goal",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="J44:AO44" ca="1" si="39">IF(AND($C40="Goal",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="K44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="L44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="M44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="O44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="P44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="Q44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="R44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="S44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="T44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="U44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="V44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="W44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="X44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="Y44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="Z44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AA44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AB44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AC44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AD44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AE44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AF44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AG44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AH44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AI44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AJ44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AK44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AL44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AM44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AN44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AO44" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AP44" s="37" t="str">
-        <f t="shared" ref="AP44:BL44" ca="1" si="42">IF(AND($C40="Goal",AP$5&gt;=$F40,AP$5&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AP$5&gt;=$F40,AP$5&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="AP44:BL44" ca="1" si="40">IF(AND($C40="Goal",AP$5&gt;=$F40,AP$5&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AP$5&gt;=$F40,AP$5&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AR44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AS44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AT44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AU44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AV44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AW44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AX44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AY44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AZ44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BA44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BB44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BC44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BD44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BE44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BF44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BG44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BH44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BI44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BJ44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BK44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BL44" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:64" s="2" customFormat="1" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="15" t="s">
-        <v>30</v>
+    <row r="45" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E45" s="30">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F45" s="31">
-        <v>44012</v>
+        <v>43990</v>
       </c>
       <c r="G45" s="32">
-        <v>1</v>
-      </c>
-      <c r="H45" s="38"/>
+        <v>10</v>
+      </c>
+      <c r="H45" s="26"/>
       <c r="I45" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J45" s="37" t="str">
-        <f t="shared" ref="J45:AO45" ca="1" si="43">IF(AND($C41="Goal",J$5&gt;=$F41,J$5&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",J$5&gt;=$F41,J$5&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ref="J45:AO45" ca="1" si="41">IF(AND($C41="Goal",J$5&gt;=$F41,J$5&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",J$5&gt;=$F41,J$5&lt;=$F41+$G41-1),1,""))</f>
         <v/>
       </c>
       <c r="K45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="L45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="N45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="O45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="P45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="Q45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="R45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="T45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="U45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="V45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="W45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="X45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="Y45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="Z45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AA45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AB45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AC45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AD45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AE45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AF45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AG45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AH45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AI45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AJ45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AK45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AL45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AM45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AN45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AO45" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AP45" s="37" t="str">
-        <f t="shared" ref="AP45:BL45" ca="1" si="44">IF(AND($C41="Goal",AP$5&gt;=$F41,AP$5&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AP$5&gt;=$F41,AP$5&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ref="AP45:BL45" ca="1" si="42">IF(AND($C41="Goal",AP$5&gt;=$F41,AP$5&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AP$5&gt;=$F41,AP$5&lt;=$F41+$G41-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AR45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AS45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AT45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AU45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AV45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AW45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AX45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AY45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AZ45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BA45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BB45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BC45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BD45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BE45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BF45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BG45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BH45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BI45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BJ45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BK45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BL45" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="49"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="4"/>
+    <row r="46" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="30">
+        <v>0</v>
+      </c>
+      <c r="F46" s="31">
+        <v>44012</v>
+      </c>
+      <c r="G46" s="32">
+        <v>1</v>
+      </c>
+      <c r="H46" s="38"/>
       <c r="I46" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J46" s="37" t="str">
-        <f t="shared" ref="J46:AO46" ca="1" si="45">IF(AND($C42="Goal",J$5&gt;=$F42,J$5&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",J$5&gt;=$F42,J$5&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ref="J46:AO46" ca="1" si="43">IF(AND($C42="Goal",J$5&gt;=$F42,J$5&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",J$5&gt;=$F42,J$5&lt;=$F42+$G42-1),1,""))</f>
         <v/>
       </c>
       <c r="K46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="L46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="M46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="N46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="O46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="P46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="Q46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="R46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="T46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="U46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="V46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="W46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="X46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="Y46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="Z46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AA46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AB46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AC46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AD46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AE46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AF46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AG46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AH46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AI46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AJ46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AK46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AL46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AM46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AN46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AO46" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AP46" s="37" t="str">
-        <f t="shared" ref="AP46:BL46" ca="1" si="46">IF(AND($C42="Goal",AP$5&gt;=$F42,AP$5&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AP$5&gt;=$F42,AP$5&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ref="AP46:BL46" ca="1" si="44">IF(AND($C42="Goal",AP$5&gt;=$F42,AP$5&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AP$5&gt;=$F42,AP$5&lt;=$F42+$G42-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AR46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AS46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AT46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AU46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AV46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AW46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AX46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AY46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AZ46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BA46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BB46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BC46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BD46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BE46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BF46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BG46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BH46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BI46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BJ46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BK46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BL46" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="49"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="30"/>
       <c r="F47" s="31"/>
       <c r="G47" s="32"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J47" s="37" t="str">
-        <f t="shared" ref="J47:AO47" ca="1" si="47">IF(AND($C43="Goal",J$5&gt;=$F43,J$5&lt;=$F43+$G43-1),2,IF(AND($C43="Milestone",J$5&gt;=$F43,J$5&lt;=$F43+$G43-1),1,""))</f>
+        <f t="shared" ref="J47:AO47" ca="1" si="45">IF(AND($C43="Goal",J$5&gt;=$F43,J$5&lt;=$F43+$G43-1),2,IF(AND($C43="Milestone",J$5&gt;=$F43,J$5&lt;=$F43+$G43-1),1,""))</f>
         <v/>
       </c>
       <c r="K47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="L47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="M47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="O47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="P47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="Q47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="R47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="S47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="T47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="U47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="V47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="W47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="X47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="Y47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="Z47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AA47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AB47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AC47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AD47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AE47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AF47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AG47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AH47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AI47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AJ47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AK47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AL47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AM47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AN47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AO47" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AP47" s="37" t="str">
-        <f t="shared" ref="AP47:BL47" ca="1" si="48">IF(AND($C43="Goal",AP$5&gt;=$F43,AP$5&lt;=$F43+$G43-1),2,IF(AND($C43="Milestone",AP$5&gt;=$F43,AP$5&lt;=$F43+$G43-1),1,""))</f>
+        <f t="shared" ref="AP47:BL47" ca="1" si="46">IF(AND($C43="Goal",AP$5&gt;=$F43,AP$5&lt;=$F43+$G43-1),2,IF(AND($C43="Milestone",AP$5&gt;=$F43,AP$5&lt;=$F43+$G43-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AR47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AS47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AT47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AU47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AV47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AW47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AX47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AY47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AZ47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BA47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BB47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BC47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BD47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BE47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BF47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BG47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BH47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BI47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BJ47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BK47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BL47" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="24"/>
+    <row r="48" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="49"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
       <c r="I48" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J48" s="37" t="str">
-        <f t="shared" ref="J48:AO48" ca="1" si="49">IF(AND($C44="Goal",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),2,IF(AND($C44="Milestone",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),1,""))</f>
+        <f t="shared" ref="J48:AO48" ca="1" si="47">IF(AND($C44="Goal",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),2,IF(AND($C44="Milestone",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="K48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="L48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="M48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="N48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="O48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="P48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="Q48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="R48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="T48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="U48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="V48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="W48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="X48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="Y48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="Z48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AA48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AB48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AC48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AD48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AE48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AF48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AG48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AH48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AI48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AJ48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AK48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AL48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AM48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AN48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AO48" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AP48" s="37" t="str">
-        <f t="shared" ref="AP48:BL48" ca="1" si="50">IF(AND($C44="Goal",AP$5&gt;=$F44,AP$5&lt;=$F44+$G44-1),2,IF(AND($C44="Milestone",AP$5&gt;=$F44,AP$5&lt;=$F44+$G44-1),1,""))</f>
+        <f t="shared" ref="AP48:BL48" ca="1" si="48">IF(AND($C44="Goal",AP$5&gt;=$F44,AP$5&lt;=$F44+$G44-1),2,IF(AND($C44="Milestone",AP$5&gt;=$F44,AP$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AR48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AS48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AT48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AU48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AV48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AW48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AX48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AY48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AZ48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BA48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BB48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BC48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BD48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BE48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BF48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BG48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BH48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BI48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BJ48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BK48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BL48" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="4:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="5"/>
-      <c r="G49" s="16"/>
+    <row r="49" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="24"/>
       <c r="I49" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J49" s="37" t="str">
-        <f t="shared" ref="J49:AO49" ca="1" si="51">IF(AND($C45="Goal",J$5&gt;=$F45,J$5&lt;=$F45+$G45-1),2,IF(AND($C45="Milestone",J$5&gt;=$F45,J$5&lt;=$F45+$G45-1),1,""))</f>
+        <f t="shared" ref="J49:AO49" ca="1" si="49">IF(AND($C45="Goal",J$5&gt;=$F45,J$5&lt;=$F45+$G45-1),2,IF(AND($C45="Milestone",J$5&gt;=$F45,J$5&lt;=$F45+$G45-1),1,""))</f>
         <v/>
       </c>
       <c r="K49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="L49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="M49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="N49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="O49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="P49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Q49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="R49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="S49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="T49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="U49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="V49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="W49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="X49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Y49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Z49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AA49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AB49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AC49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AD49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AE49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AF49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AG49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AH49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AI49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AJ49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AK49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AL49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AM49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AN49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AO49" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AP49" s="37" t="str">
+        <f t="shared" ref="AP49:BL49" ca="1" si="50">IF(AND($C45="Goal",AP$5&gt;=$F45,AP$5&lt;=$F45+$G45-1),2,IF(AND($C45="Milestone",AP$5&gt;=$F45,AP$5&lt;=$F45+$G45-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AR49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AS49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AT49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AU49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AV49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AW49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AX49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AY49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AZ49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BA49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BB49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BC49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BD49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BE49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BF49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BG49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BH49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BI49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BJ49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BK49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BL49" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="5"/>
+      <c r="G50" s="16"/>
+      <c r="I50" s="37" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="J50" s="37" t="str">
+        <f t="shared" ref="J50:AO50" ca="1" si="51">IF(AND($C46="Goal",J$5&gt;=$F46,J$5&lt;=$F46+$G46-1),2,IF(AND($C46="Milestone",J$5&gt;=$F46,J$5&lt;=$F46+$G46-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="L49" s="37" t="str">
+      <c r="L50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="M49" s="37" t="str">
+      <c r="M50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="N49" s="37" t="str">
+      <c r="N50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="O49" s="37" t="str">
+      <c r="O50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="P49" s="37" t="str">
+      <c r="P50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="Q49" s="37" t="str">
+      <c r="Q50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="R49" s="37" t="str">
+      <c r="R50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="S49" s="37" t="str">
+      <c r="S50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="T49" s="37" t="str">
+      <c r="T50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="U49" s="37" t="str">
+      <c r="U50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="V49" s="37" t="str">
+      <c r="V50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="W49" s="37" t="str">
+      <c r="W50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="X49" s="37" t="str">
+      <c r="X50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="Y49" s="37" t="str">
+      <c r="Y50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="Z49" s="37" t="str">
+      <c r="Z50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AA49" s="37" t="str">
+      <c r="AA50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AB49" s="37" t="str">
+      <c r="AB50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AC49" s="37" t="str">
+      <c r="AC50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AD49" s="37" t="str">
+      <c r="AD50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AE49" s="37" t="str">
+      <c r="AE50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AF49" s="37" t="str">
+      <c r="AF50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AG49" s="37" t="str">
+      <c r="AG50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AH49" s="37" t="str">
+      <c r="AH50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AI49" s="37" t="str">
+      <c r="AI50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AJ49" s="37" t="str">
+      <c r="AJ50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AK49" s="37" t="str">
+      <c r="AK50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AL49" s="37">
+      <c r="AL50" s="37">
         <f t="shared" ca="1" si="51"/>
         <v>1</v>
       </c>
-      <c r="AM49" s="37" t="str">
+      <c r="AM50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AN49" s="37" t="str">
+      <c r="AN50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AO49" s="37" t="str">
+      <c r="AO50" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AP49" s="37" t="str">
-        <f t="shared" ref="AP49:BL49" ca="1" si="52">IF(AND($C45="Goal",AP$5&gt;=$F45,AP$5&lt;=$F45+$G45-1),2,IF(AND($C45="Milestone",AP$5&gt;=$F45,AP$5&lt;=$F45+$G45-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ49" s="37" t="str">
+      <c r="AP50" s="37" t="str">
+        <f t="shared" ref="AP50:BL50" ca="1" si="52">IF(AND($C46="Goal",AP$5&gt;=$F46,AP$5&lt;=$F46+$G46-1),2,IF(AND($C46="Milestone",AP$5&gt;=$F46,AP$5&lt;=$F46+$G46-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AR49" s="37" t="str">
+      <c r="AR50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AS49" s="37" t="str">
+      <c r="AS50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AT49" s="37" t="str">
+      <c r="AT50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AU49" s="37" t="str">
+      <c r="AU50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AV49" s="37" t="str">
+      <c r="AV50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AW49" s="37" t="str">
+      <c r="AW50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AX49" s="37" t="str">
+      <c r="AX50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AY49" s="37" t="str">
+      <c r="AY50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AZ49" s="37" t="str">
+      <c r="AZ50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BA49" s="37" t="str">
+      <c r="BA50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BB49" s="37" t="str">
+      <c r="BB50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BC49" s="37" t="str">
+      <c r="BC50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BD49" s="37" t="str">
+      <c r="BD50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BE49" s="37" t="str">
+      <c r="BE50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BF49" s="37" t="str">
+      <c r="BF50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BG49" s="37" t="str">
+      <c r="BG50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BH49" s="37" t="str">
+      <c r="BH50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BI49" s="37" t="str">
+      <c r="BI50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BJ49" s="37" t="str">
+      <c r="BJ50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BK49" s="37" t="str">
+      <c r="BK50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BL49" s="37" t="str">
+      <c r="BL50" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="4:64" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D50" s="6"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37" t="str">
-        <f t="shared" ref="J50:AO50" ca="1" si="53">IF(AND($C46="Goal",J$5&gt;=$F46,J$5&lt;=$F46+$G46-1),2,IF(AND($C46="Milestone",J$5&gt;=$F46,J$5&lt;=$F46+$G46-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K50" s="37" t="str">
+    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="6"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37" t="str">
+        <f t="shared" ref="J51:AO51" ca="1" si="53">IF(AND($C47="Goal",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),2,IF(AND($C47="Milestone",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="L50" s="37" t="str">
+      <c r="L51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="M50" s="37" t="str">
+      <c r="M51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="N50" s="37" t="str">
+      <c r="N51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="O50" s="37" t="str">
+      <c r="O51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="P50" s="37" t="str">
+      <c r="P51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="Q50" s="37" t="str">
+      <c r="Q51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="R50" s="37" t="str">
+      <c r="R51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="S50" s="37" t="str">
+      <c r="S51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="T50" s="37" t="str">
+      <c r="T51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="U50" s="37" t="str">
+      <c r="U51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="V50" s="37" t="str">
+      <c r="V51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="W50" s="37" t="str">
+      <c r="W51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="X50" s="37" t="str">
+      <c r="X51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="Y50" s="37" t="str">
+      <c r="Y51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="Z50" s="37" t="str">
+      <c r="Z51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AA50" s="37" t="str">
+      <c r="AA51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AB50" s="37" t="str">
+      <c r="AB51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AC50" s="37" t="str">
+      <c r="AC51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AD50" s="37" t="str">
+      <c r="AD51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AE50" s="37" t="str">
+      <c r="AE51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AF50" s="37" t="str">
+      <c r="AF51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AG50" s="37" t="str">
+      <c r="AG51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AH50" s="37" t="str">
+      <c r="AH51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AI50" s="37" t="str">
+      <c r="AI51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AJ50" s="37" t="str">
+      <c r="AJ51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AK50" s="37" t="str">
+      <c r="AK51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AL50" s="37" t="str">
+      <c r="AL51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AM50" s="37" t="str">
+      <c r="AM51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AN50" s="37" t="str">
+      <c r="AN51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AO50" s="37" t="str">
+      <c r="AO51" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AP50" s="37" t="str">
-        <f t="shared" ref="AP50:BL50" ca="1" si="54">IF(AND($C46="Goal",AP$5&gt;=$F46,AP$5&lt;=$F46+$G46-1),2,IF(AND($C46="Milestone",AP$5&gt;=$F46,AP$5&lt;=$F46+$G46-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ50" s="37" t="str">
+      <c r="AP51" s="37" t="str">
+        <f t="shared" ref="AP51:BL51" ca="1" si="54">IF(AND($C47="Goal",AP$5&gt;=$F47,AP$5&lt;=$F47+$G47-1),2,IF(AND($C47="Milestone",AP$5&gt;=$F47,AP$5&lt;=$F47+$G47-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AR50" s="37" t="str">
+      <c r="AR51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AS50" s="37" t="str">
+      <c r="AS51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AT50" s="37" t="str">
+      <c r="AT51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AU50" s="37" t="str">
+      <c r="AU51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AV50" s="37" t="str">
+      <c r="AV51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AW50" s="37" t="str">
+      <c r="AW51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AX50" s="37" t="str">
+      <c r="AX51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AY50" s="37" t="str">
+      <c r="AY51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AZ50" s="37" t="str">
+      <c r="AZ51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BA50" s="37" t="str">
+      <c r="BA51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BB50" s="37" t="str">
+      <c r="BB51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BC50" s="37" t="str">
+      <c r="BC51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BD50" s="37" t="str">
+      <c r="BD51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BE50" s="37" t="str">
+      <c r="BE51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BF50" s="37" t="str">
+      <c r="BF51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BG50" s="37" t="str">
+      <c r="BG51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BH50" s="37" t="str">
+      <c r="BH51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BI50" s="37" t="str">
+      <c r="BI51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BJ50" s="37" t="str">
+      <c r="BJ51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BK50" s="37" t="str">
+      <c r="BK51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BL50" s="37" t="str">
+      <c r="BL51" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="4:64" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J51" s="37" t="str">
-        <f t="shared" ref="J51:AO51" ca="1" si="55">IF(AND($C47="Goal",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),2,IF(AND($C47="Milestone",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K51" s="37" t="str">
+    <row r="52" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="37" t="str">
+        <f t="shared" ref="J52:AO52" ca="1" si="55">IF(AND($C48="Goal",J$5&gt;=$F48,J$5&lt;=$F48+$G48-1),2,IF(AND($C48="Milestone",J$5&gt;=$F48,J$5&lt;=$F48+$G48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="L51" s="37" t="str">
+      <c r="L52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="M51" s="37" t="str">
+      <c r="M52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="N51" s="37" t="str">
+      <c r="N52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="O51" s="37" t="str">
+      <c r="O52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="P51" s="37" t="str">
+      <c r="P52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="Q51" s="37" t="str">
+      <c r="Q52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="R51" s="37" t="str">
+      <c r="R52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="S51" s="37" t="str">
+      <c r="S52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="T51" s="37" t="str">
+      <c r="T52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="U51" s="37" t="str">
+      <c r="U52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="V51" s="37" t="str">
+      <c r="V52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="W51" s="37" t="str">
+      <c r="W52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="X51" s="37" t="str">
+      <c r="X52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="Y51" s="37" t="str">
+      <c r="Y52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="Z51" s="37" t="str">
+      <c r="Z52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AA51" s="37" t="str">
+      <c r="AA52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AB51" s="37" t="str">
+      <c r="AB52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AC51" s="37" t="str">
+      <c r="AC52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AD51" s="37" t="str">
+      <c r="AD52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AE51" s="37" t="str">
+      <c r="AE52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AF51" s="37" t="str">
+      <c r="AF52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AG51" s="37" t="str">
+      <c r="AG52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AH51" s="37" t="str">
+      <c r="AH52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AI51" s="37" t="str">
+      <c r="AI52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AJ51" s="37" t="str">
+      <c r="AJ52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AK51" s="37" t="str">
+      <c r="AK52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AL51" s="37" t="str">
+      <c r="AL52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AM51" s="37" t="str">
+      <c r="AM52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AN51" s="37" t="str">
+      <c r="AN52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AO51" s="37" t="str">
+      <c r="AO52" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AP51" s="37" t="str">
-        <f t="shared" ref="AP51:BL51" ca="1" si="56">IF(AND($C47="Goal",AP$5&gt;=$F47,AP$5&lt;=$F47+$G47-1),2,IF(AND($C47="Milestone",AP$5&gt;=$F47,AP$5&lt;=$F47+$G47-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ51" s="37" t="str">
+      <c r="AP52" s="37" t="str">
+        <f t="shared" ref="AP52:BL52" ca="1" si="56">IF(AND($C48="Goal",AP$5&gt;=$F48,AP$5&lt;=$F48+$G48-1),2,IF(AND($C48="Milestone",AP$5&gt;=$F48,AP$5&lt;=$F48+$G48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AR51" s="37" t="str">
+      <c r="AR52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AS51" s="37" t="str">
+      <c r="AS52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AT51" s="37" t="str">
+      <c r="AT52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AU51" s="37" t="str">
+      <c r="AU52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AV51" s="37" t="str">
+      <c r="AV52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AW51" s="37" t="str">
+      <c r="AW52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AX51" s="37" t="str">
+      <c r="AX52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AY51" s="37" t="str">
+      <c r="AY52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AZ51" s="37" t="str">
+      <c r="AZ52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BA51" s="37" t="str">
+      <c r="BA52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BB51" s="37" t="str">
+      <c r="BB52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BC51" s="37" t="str">
+      <c r="BC52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BD51" s="37" t="str">
+      <c r="BD52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BE51" s="37" t="str">
+      <c r="BE52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BF51" s="37" t="str">
+      <c r="BF52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BG51" s="37" t="str">
+      <c r="BG52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BH51" s="37" t="str">
+      <c r="BH52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BI51" s="37" t="str">
+      <c r="BI52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BJ51" s="37" t="str">
+      <c r="BJ52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BK51" s="37" t="str">
+      <c r="BK52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BL51" s="37" t="str">
+      <c r="BL52" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="4:64" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="36"/>
-      <c r="AA52" s="36"/>
-      <c r="AB52" s="36"/>
-      <c r="AC52" s="36"/>
-      <c r="AD52" s="36"/>
-      <c r="AE52" s="36"/>
-      <c r="AF52" s="36"/>
-      <c r="AG52" s="36"/>
-      <c r="AH52" s="36"/>
-      <c r="AI52" s="36"/>
-      <c r="AJ52" s="36"/>
-      <c r="AK52" s="36"/>
-      <c r="AL52" s="36"/>
-      <c r="AM52" s="36"/>
-      <c r="AN52" s="36"/>
-      <c r="AO52" s="36"/>
-      <c r="AP52" s="36"/>
-      <c r="AQ52" s="36"/>
-      <c r="AR52" s="36"/>
-      <c r="AS52" s="36"/>
-      <c r="AT52" s="36"/>
-      <c r="AU52" s="36"/>
-      <c r="AV52" s="36"/>
-      <c r="AW52" s="36"/>
-      <c r="AX52" s="36"/>
-      <c r="AY52" s="36"/>
-      <c r="AZ52" s="36"/>
-      <c r="BA52" s="36"/>
-      <c r="BB52" s="36"/>
-      <c r="BC52" s="36"/>
-      <c r="BD52" s="36"/>
-      <c r="BE52" s="36"/>
-      <c r="BF52" s="36"/>
-      <c r="BG52" s="36"/>
-      <c r="BH52" s="36"/>
-      <c r="BI52" s="36"/>
-      <c r="BJ52" s="36"/>
-      <c r="BK52" s="36"/>
-      <c r="BL52" s="36"/>
+    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="36"/>
+      <c r="AB53" s="36"/>
+      <c r="AC53" s="36"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="36"/>
+      <c r="AG53" s="36"/>
+      <c r="AH53" s="36"/>
+      <c r="AI53" s="36"/>
+      <c r="AJ53" s="36"/>
+      <c r="AK53" s="36"/>
+      <c r="AL53" s="36"/>
+      <c r="AM53" s="36"/>
+      <c r="AN53" s="36"/>
+      <c r="AO53" s="36"/>
+      <c r="AP53" s="36"/>
+      <c r="AQ53" s="36"/>
+      <c r="AR53" s="36"/>
+      <c r="AS53" s="36"/>
+      <c r="AT53" s="36"/>
+      <c r="AU53" s="36"/>
+      <c r="AV53" s="36"/>
+      <c r="AW53" s="36"/>
+      <c r="AX53" s="36"/>
+      <c r="AY53" s="36"/>
+      <c r="AZ53" s="36"/>
+      <c r="BA53" s="36"/>
+      <c r="BB53" s="36"/>
+      <c r="BC53" s="36"/>
+      <c r="BD53" s="36"/>
+      <c r="BE53" s="36"/>
+      <c r="BF53" s="36"/>
+      <c r="BG53" s="36"/>
+      <c r="BH53" s="36"/>
+      <c r="BI53" s="36"/>
+      <c r="BJ53" s="36"/>
+      <c r="BK53" s="36"/>
+      <c r="BL53" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10997,7 +11204,7 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="S2:V2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E45:E47 E7:E42">
+  <conditionalFormatting sqref="E46:E48 E7:E43">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11011,61 +11218,61 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL19 I20:I50 J20:BL52">
-    <cfRule type="expression" dxfId="66" priority="32">
+  <conditionalFormatting sqref="I5:BL19 I20:I51 J20:BL53">
+    <cfRule type="expression" dxfId="0" priority="32">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="65" priority="38">
+    <cfRule type="expression" dxfId="68" priority="38">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="64" priority="34">
+    <cfRule type="expression" dxfId="67" priority="34">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="63" priority="33">
+    <cfRule type="expression" dxfId="66" priority="33">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL19 I20 J20:BL21 J25:BL27 J37:BL37">
-    <cfRule type="expression" dxfId="62" priority="55" stopIfTrue="1">
+  <conditionalFormatting sqref="I8:BL19 I20 J20:BL21 J25:BL27 J38:BL38">
+    <cfRule type="expression" dxfId="65" priority="55" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="74" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="92" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="93" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="94" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50 J52:BL52">
-    <cfRule type="expression" dxfId="57" priority="102" stopIfTrue="1">
+  <conditionalFormatting sqref="I51 J53:BL53">
+    <cfRule type="expression" dxfId="60" priority="102" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="103" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="104" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="105" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="106" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11079,7 +11286,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11093,181 +11300,198 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I24 I31:I34">
-    <cfRule type="expression" dxfId="52" priority="158" stopIfTrue="1">
+  <conditionalFormatting sqref="I22:I24 I33:I35">
+    <cfRule type="expression" dxfId="55" priority="158" stopIfTrue="1">
       <formula>AND($C25="Low Risk",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="159" stopIfTrue="1">
       <formula>AND($C25="High Risk",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="160" stopIfTrue="1">
       <formula>AND($C25="On Track",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="161" stopIfTrue="1">
       <formula>AND($C25="Med Risk",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="162" stopIfTrue="1">
       <formula>AND(LEN($C25)=0,I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21 J28:BL32 J38:BL41">
-    <cfRule type="expression" dxfId="47" priority="228" stopIfTrue="1">
+  <conditionalFormatting sqref="I21 J28:BL32 J39:BL42">
+    <cfRule type="expression" dxfId="50" priority="228" stopIfTrue="1">
       <formula>AND($C20="Low Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="229" stopIfTrue="1">
       <formula>AND($C20="High Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="230" stopIfTrue="1">
       <formula>AND($C20="On Track",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="231" stopIfTrue="1">
       <formula>AND($C20="Med Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="232" stopIfTrue="1">
       <formula>AND(LEN($C20)=0,I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25 I35">
-    <cfRule type="expression" dxfId="42" priority="238" stopIfTrue="1">
+  <conditionalFormatting sqref="I25 I36">
+    <cfRule type="expression" dxfId="45" priority="238" stopIfTrue="1">
       <formula>AND($C27="Low Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="239" stopIfTrue="1">
       <formula>AND($C27="High Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="240" stopIfTrue="1">
       <formula>AND($C27="On Track",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="241" stopIfTrue="1">
       <formula>AND($C27="Med Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="242" stopIfTrue="1">
       <formula>AND(LEN($C27)=0,I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:BL22 I40:I49">
-    <cfRule type="expression" dxfId="37" priority="252" stopIfTrue="1">
+  <conditionalFormatting sqref="J22:BL22 J33:BL33 I41:I50">
+    <cfRule type="expression" dxfId="40" priority="252" stopIfTrue="1">
       <formula>AND($C20="Low Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="253" stopIfTrue="1">
       <formula>AND($C20="High Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="254" stopIfTrue="1">
       <formula>AND($C20="On Track",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="255" stopIfTrue="1">
       <formula>AND($C20="Med Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="256" stopIfTrue="1">
       <formula>AND(LEN($C20)=0,I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:BL36 I26:I30 I36:I39">
-    <cfRule type="expression" dxfId="32" priority="276" stopIfTrue="1">
+  <conditionalFormatting sqref="I26:I30 J34:BL37 I37:I40">
+    <cfRule type="expression" dxfId="35" priority="276" stopIfTrue="1">
       <formula>AND($C27="Low Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="277" stopIfTrue="1">
       <formula>AND($C27="High Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="278" stopIfTrue="1">
       <formula>AND($C27="On Track",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="279" stopIfTrue="1">
       <formula>AND($C27="Med Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="280" stopIfTrue="1">
       <formula>AND(LEN($C27)=0,I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:BL24">
-    <cfRule type="expression" dxfId="27" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="316" stopIfTrue="1">
       <formula>AND($C20="Low Risk",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="317" stopIfTrue="1">
       <formula>AND($C20="High Risk",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="318" stopIfTrue="1">
       <formula>AND($C20="On Track",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="319" stopIfTrue="1">
       <formula>AND($C20="Med Risk",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="320" stopIfTrue="1">
       <formula>AND(LEN($C20)=0,J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:BL51">
-    <cfRule type="expression" dxfId="22" priority="394" stopIfTrue="1">
-      <formula>AND($C38="Low Risk",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1)</formula>
+  <conditionalFormatting sqref="J43:BL52">
+    <cfRule type="expression" dxfId="25" priority="394" stopIfTrue="1">
+      <formula>AND($C39="Low Risk",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="395" stopIfTrue="1">
-      <formula>AND($C38="High Risk",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1)</formula>
+    <cfRule type="expression" dxfId="24" priority="395" stopIfTrue="1">
+      <formula>AND($C39="High Risk",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="396" stopIfTrue="1">
-      <formula>AND($C38="On Track",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1)</formula>
+    <cfRule type="expression" dxfId="23" priority="396" stopIfTrue="1">
+      <formula>AND($C39="On Track",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="397" stopIfTrue="1">
-      <formula>AND($C38="Med Risk",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1)</formula>
+    <cfRule type="expression" dxfId="22" priority="397" stopIfTrue="1">
+      <formula>AND($C39="Med Risk",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="398" stopIfTrue="1">
-      <formula>AND(LEN($C38)=0,J$5&gt;=$F38,J$5&lt;=$F38+$G38-1)</formula>
+    <cfRule type="expression" dxfId="21" priority="398" stopIfTrue="1">
+      <formula>AND(LEN($C39)=0,J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22">
-    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
       <formula>AND($C22="Low Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="12" stopIfTrue="1">
       <formula>AND($C22="High Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
       <formula>AND($C22="On Track",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
       <formula>AND($C22="Med Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>AND(LEN($C22)=0,X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>AND($C23="Low Risk",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>AND($C23="High Risk",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>AND($C23="On Track",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>AND($C23="Med Risk",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>AND(LEN($C23)=0,X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>AND($C23="Low Risk",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
       <formula>AND($C23="High Risk",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
       <formula>AND($C23="On Track",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
       <formula>AND($C23="Med Risk",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>AND(LEN($C23)=0,Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I32">
+    <cfRule type="expression" dxfId="5" priority="399" stopIfTrue="1">
+      <formula>AND($C35="Low Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="400" stopIfTrue="1">
+      <formula>AND($C35="High Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="401" stopIfTrue="1">
+      <formula>AND($C35="On Track",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="402" stopIfTrue="1">
+      <formula>AND($C35="Med Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="403" stopIfTrue="1">
+      <formula>AND(LEN($C35)=0,I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C47" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C48" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
@@ -11292,15 +11516,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>26314</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>65784</xdr:rowOff>
+                    <xdr:rowOff>63500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
-                    <xdr:colOff>230245</xdr:colOff>
+                    <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>243401</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11329,7 +11553,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E45:E47 E7:E42</xm:sqref>
+          <xm:sqref>E46:E48 E7:E43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{472010C4-7FB5-416C-8D02-D6C3E4F5F0A8}">
@@ -11344,7 +11568,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E43</xm:sqref>
+          <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6C517204-12FA-4DB9-9CD7-F3607D2B852E}">
@@ -11359,7 +11583,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E44</xm:sqref>
+          <xm:sqref>E45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="101" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -11378,7 +11602,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I50 J52:BL52</xm:sqref>
+          <xm:sqref>I51 J53:BL53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="136" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -11397,7 +11621,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I47:I49 J49:BL51 I8:BL19 I20:I44 J20:BL46</xm:sqref>
+          <xm:sqref>I48:I50 J50:BL52 I8:BL19 I20:I45 J20:BL47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="31" id="{DE05B366-AD41-4E05-B480-F396DE8AD3D4}">
@@ -11416,7 +11640,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I45 J47:BL47</xm:sqref>
+          <xm:sqref>I46 J48:BL48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="23" id="{3EB0BB47-E188-4716-B47F-ADBD4EA21EBD}">
@@ -11435,7 +11659,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I46 J48:BL48</xm:sqref>
+          <xm:sqref>I47 J49:BL49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11451,33 +11675,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.95" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>

--- a/Week4 Pre/CT Project Plan 6-26-2020.xlsx
+++ b/Week4 Pre/CT Project Plan 6-26-2020.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41817BD-6D87-F642-B665-5EA980F9F596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C6BF83-CDA4-0B41-A6F2-BCCAFADEBF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26720" windowHeight="14520" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
   <si>
     <t>About This Template</t>
   </si>
@@ -277,7 +277,10 @@
     <t>Demo App Release</t>
   </si>
   <si>
-    <t>Research and design dashboard</t>
+    <t>Dashboard research and plan</t>
+  </si>
+  <si>
+    <t>Dashboard Design and Implementation</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +500,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB239"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +701,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -857,6 +866,12 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -872,7 +887,620 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="114">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2525,20 +3153,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="84"/>
-      <tableStyleElement type="headerRow" dxfId="83"/>
-      <tableStyleElement type="firstRowStripe" dxfId="82"/>
+      <tableStyleElement type="wholeTable" dxfId="113"/>
+      <tableStyleElement type="headerRow" dxfId="112"/>
+      <tableStyleElement type="firstRowStripe" dxfId="111"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="81"/>
-      <tableStyleElement type="headerRow" dxfId="80"/>
-      <tableStyleElement type="totalRow" dxfId="79"/>
-      <tableStyleElement type="firstColumn" dxfId="78"/>
-      <tableStyleElement type="lastColumn" dxfId="77"/>
-      <tableStyleElement type="firstRowStripe" dxfId="76"/>
-      <tableStyleElement type="secondRowStripe" dxfId="75"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="74"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="73"/>
+      <tableStyleElement type="wholeTable" dxfId="110"/>
+      <tableStyleElement type="headerRow" dxfId="109"/>
+      <tableStyleElement type="totalRow" dxfId="108"/>
+      <tableStyleElement type="firstColumn" dxfId="107"/>
+      <tableStyleElement type="lastColumn" dxfId="106"/>
+      <tableStyleElement type="firstRowStripe" dxfId="105"/>
+      <tableStyleElement type="secondRowStripe" dxfId="104"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="103"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="102"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2609,6 +3237,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFDB239"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
       <color rgb="FF969696"/>
@@ -2691,8 +3320,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:G48" totalsRowShown="0">
-  <autoFilter ref="B7:G48" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:G49" totalsRowShown="0">
+  <autoFilter ref="B7:G49" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2701,9 +3330,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="99"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -2983,10 +3612,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL53"/>
+  <dimension ref="A1:BL54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B25" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3748,7 +4377,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
@@ -5838,7 +6467,7 @@
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="37" t="str">
-        <f ca="1">IF(AND($C25="Goal",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),1,""))</f>
+        <f ca="1">IF(AND($C26="Goal",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="J22" s="37"/>
@@ -5919,7 +6548,7 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="37" t="str">
-        <f ca="1">IF(AND($C26="Goal",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
+        <f ca="1">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="37"/>
@@ -6056,263 +6685,97 @@
       <c r="BK24" s="37"/>
       <c r="BL24" s="37"/>
     </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
+    <row r="25" spans="1:64" s="2" customFormat="1" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="31">
+        <v>44006</v>
+      </c>
+      <c r="G25" s="32">
+        <v>3</v>
+      </c>
       <c r="H25" s="26"/>
       <c r="I25" s="37"/>
-      <c r="J25" s="37" t="str">
-        <f t="shared" ref="J25:S26" ca="1" si="17">IF(AND($C25="Goal",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K25" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="L25" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="M25" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="N25" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="O25" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="P25" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Q25" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="R25" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="S25" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="T25" s="37" t="str">
-        <f t="shared" ref="T25:AC26" ca="1" si="18">IF(AND($C25="Goal",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U25" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="V25" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="W25" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="X25" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Y25" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Z25" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AA25" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AB25" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AC25" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AD25" s="37" t="str">
-        <f t="shared" ref="AD25:AM26" ca="1" si="19">IF(AND($C25="Goal",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE25" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AF25" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AG25" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AH25" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AI25" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AJ25" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AK25" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AL25" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AM25" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AN25" s="37" t="str">
-        <f t="shared" ref="AN25:AW26" ca="1" si="20">IF(AND($C25="Goal",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO25" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AP25" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AQ25" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AR25" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AS25" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AT25" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AU25" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AV25" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AW25" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AX25" s="37" t="str">
-        <f t="shared" ref="AX25:BL26" ca="1" si="21">IF(AND($C25="Goal",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AZ25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BA25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BB25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BC25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BD25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BE25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BF25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BG25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BH25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BI25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BJ25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BK25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BL25" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="37"/>
+      <c r="AQ25" s="37"/>
+      <c r="AR25" s="37"/>
+      <c r="AS25" s="37"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="37"/>
+      <c r="BA25" s="37"/>
+      <c r="BB25" s="37"/>
+      <c r="BC25" s="37"/>
+      <c r="BD25" s="37"/>
+      <c r="BE25" s="37"/>
+      <c r="BF25" s="37"/>
+      <c r="BG25" s="37"/>
+      <c r="BH25" s="37"/>
+      <c r="BI25" s="37"/>
+      <c r="BJ25" s="37"/>
+      <c r="BK25" s="37"/>
+      <c r="BL25" s="37"/>
     </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="F26" s="31">
-        <v>43997</v>
-      </c>
-      <c r="G26" s="32">
-        <v>4</v>
-      </c>
+      <c r="B26" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="26"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ref="J26:S27" ca="1" si="17">IF(AND($C26="Goal",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="K26" s="37" t="str">
@@ -6352,7 +6815,7 @@
         <v/>
       </c>
       <c r="T26" s="37" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ref="T26:AC27" ca="1" si="18">IF(AND($C26="Goal",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="U26" s="37" t="str">
@@ -6392,7 +6855,7 @@
         <v/>
       </c>
       <c r="AD26" s="37" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ref="AD26:AM27" ca="1" si="19">IF(AND($C26="Goal",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AE26" s="37" t="str">
@@ -6432,7 +6895,7 @@
         <v/>
       </c>
       <c r="AN26" s="37" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="AN26:AW27" ca="1" si="20">IF(AND($C26="Goal",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AO26" s="37" t="str">
@@ -6472,7 +6935,7 @@
         <v/>
       </c>
       <c r="AX26" s="37" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="AX26:BL27" ca="1" si="21">IF(AND($C26="Goal",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AY26" s="37" t="str">
@@ -6532,10 +6995,10 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:64" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>11</v>
@@ -6544,79 +7007,241 @@
         <v>54</v>
       </c>
       <c r="E27" s="30">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F27" s="31">
-        <v>44000</v>
+        <v>43997</v>
       </c>
       <c r="G27" s="32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H27" s="26"/>
-      <c r="I27" s="37" t="str">
-        <f ca="1">IF(AND($C28="Goal",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
-      <c r="AT27" s="37"/>
-      <c r="AU27" s="37"/>
-      <c r="AV27" s="37"/>
-      <c r="AW27" s="37"/>
-      <c r="AX27" s="37"/>
-      <c r="AY27" s="37"/>
-      <c r="AZ27" s="37"/>
-      <c r="BA27" s="37"/>
-      <c r="BB27" s="37"/>
-      <c r="BC27" s="37"/>
-      <c r="BD27" s="37"/>
-      <c r="BE27" s="37"/>
-      <c r="BF27" s="37"/>
-      <c r="BG27" s="37"/>
-      <c r="BH27" s="37"/>
-      <c r="BI27" s="37"/>
-      <c r="BJ27" s="37"/>
-      <c r="BK27" s="37"/>
-      <c r="BL27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="L27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="M27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="N27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="O27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="P27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="Q27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="R27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="S27" s="37" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="T27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="U27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="V27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="W27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="X27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="Y27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="Z27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AA27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AB27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AC27" s="37" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AD27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AE27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AF27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AG27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AH27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AI27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AJ27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AK27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AL27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AM27" s="37" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AN27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AO27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AP27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AQ27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AR27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AS27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AT27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AU27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AV27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AW27" s="37" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AX27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AY27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AZ27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BA27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BB27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BC27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BD27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BE27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BF27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BG27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BH27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BI27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BJ27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BK27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BL27" s="37" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>11</v>
@@ -6625,13 +7250,13 @@
         <v>54</v>
       </c>
       <c r="E28" s="30">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F28" s="31">
-        <v>43997</v>
+        <v>44000</v>
       </c>
       <c r="G28" s="32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="37" t="str">
@@ -6697,7 +7322,7 @@
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>11</v>
@@ -6706,7 +7331,7 @@
         <v>54</v>
       </c>
       <c r="E29" s="30">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="31">
         <v>43997</v>
@@ -6715,241 +7340,79 @@
         <v>25</v>
       </c>
       <c r="H29" s="26"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37" t="str">
-        <f t="shared" ref="J29:S30" ca="1" si="22">IF(AND($C28="Goal",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K29" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="L29" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="M29" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="N29" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="O29" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="P29" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="Q29" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="R29" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="S29" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="T29" s="37" t="str">
-        <f t="shared" ref="T29:AC30" ca="1" si="23">IF(AND($C28="Goal",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U29" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="V29" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="W29" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="X29" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="Y29" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="Z29" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AA29" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AB29" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AC29" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AD29" s="37" t="str">
-        <f t="shared" ref="AD29:AM30" ca="1" si="24">IF(AND($C28="Goal",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE29" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AF29" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AG29" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AH29" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AI29" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AJ29" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AK29" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AL29" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AM29" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AN29" s="37" t="str">
-        <f t="shared" ref="AN29:AW30" ca="1" si="25">IF(AND($C28="Goal",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO29" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AP29" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AQ29" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AR29" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AS29" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AT29" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AU29" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AV29" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AW29" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AX29" s="37" t="str">
-        <f t="shared" ref="AX29:BG30" ca="1" si="26">IF(AND($C28="Goal",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY29" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AZ29" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BA29" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BB29" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BC29" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BD29" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BE29" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BF29" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BG29" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BH29" s="37" t="str">
-        <f t="shared" ref="BH29:BL30" ca="1" si="27">IF(AND($C28="Goal",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI29" s="37" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="BJ29" s="37" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="BK29" s="37" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="BL29" s="37" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
+      <c r="I29" s="37" t="str">
+        <f ca="1">IF(AND($C30="Goal",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
     </row>
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="30">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F30" s="31">
         <v>43997</v>
@@ -6960,7 +7423,7 @@
       <c r="H30" s="26"/>
       <c r="I30" s="37"/>
       <c r="J30" s="37" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ref="J30:S31" ca="1" si="22">IF(AND($C29="Goal",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="K30" s="37" t="str">
@@ -7000,7 +7463,7 @@
         <v/>
       </c>
       <c r="T30" s="37" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="T30:AC31" ca="1" si="23">IF(AND($C29="Goal",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="U30" s="37" t="str">
@@ -7040,7 +7503,7 @@
         <v/>
       </c>
       <c r="AD30" s="37" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ref="AD30:AM31" ca="1" si="24">IF(AND($C29="Goal",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AE30" s="37" t="str">
@@ -7080,7 +7543,7 @@
         <v/>
       </c>
       <c r="AN30" s="37" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="AN30:AW31" ca="1" si="25">IF(AND($C29="Goal",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AO30" s="37" t="str">
@@ -7120,7 +7583,7 @@
         <v/>
       </c>
       <c r="AX30" s="37" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="AX30:BG31" ca="1" si="26">IF(AND($C29="Goal",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AY30" s="37" t="str">
@@ -7160,7 +7623,7 @@
         <v/>
       </c>
       <c r="BH30" s="37" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ref="BH30:BL31" ca="1" si="27">IF(AND($C29="Goal",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BI30" s="37" t="str">
@@ -7183,7 +7646,7 @@
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>10</v>
@@ -7201,88 +7664,253 @@
         <v>25</v>
       </c>
       <c r="H31" s="26"/>
-      <c r="I31" s="37" t="str">
-        <f ca="1">IF(AND($C35="Goal",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="37"/>
-      <c r="AT31" s="37"/>
-      <c r="AU31" s="37"/>
-      <c r="AV31" s="37"/>
-      <c r="AW31" s="37"/>
-      <c r="AX31" s="37"/>
-      <c r="AY31" s="37"/>
-      <c r="AZ31" s="37"/>
-      <c r="BA31" s="37"/>
-      <c r="BB31" s="37"/>
-      <c r="BC31" s="37"/>
-      <c r="BD31" s="37"/>
-      <c r="BE31" s="37"/>
-      <c r="BF31" s="37"/>
-      <c r="BG31" s="37"/>
-      <c r="BH31" s="37"/>
-      <c r="BI31" s="37"/>
-      <c r="BJ31" s="37"/>
-      <c r="BK31" s="37"/>
-      <c r="BL31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S31" s="37" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="U31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="V31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="W31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="X31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Y31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Z31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AA31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AB31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AC31" s="37" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AD31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AE31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AF31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AG31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AH31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AI31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AK31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AL31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AM31" s="37" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AN31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AO31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AP31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AQ31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AR31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AS31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AT31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AU31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AV31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AW31" s="37" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AX31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="AY31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="AZ31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="BA31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="BB31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="BC31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="BD31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="BE31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="BF31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="BG31" s="37" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="BH31" s="37" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI31" s="37" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ31" s="37" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK31" s="37" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BL31" s="37" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="49" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E32" s="30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F32" s="31">
-        <v>44006</v>
+        <v>43997</v>
       </c>
       <c r="G32" s="32">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H32" s="26"/>
-      <c r="I32" s="37"/>
+      <c r="I32" s="37" t="str">
+        <f ca="1">IF(AND($C36="Goal",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),1,""))</f>
+        <v/>
+      </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
@@ -7342,28 +7970,25 @@
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="49" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E33" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="31">
-        <v>44000</v>
+        <v>44011</v>
       </c>
       <c r="G33" s="32">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H33" s="26"/>
-      <c r="I33" s="37" t="str">
-        <f ca="1">IF(AND($C36="Goal",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",I$5&gt;=$F36,I$5&lt;=$F36+$G36-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
@@ -7423,7 +8048,7 @@
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>11</v>
@@ -7445,251 +8070,89 @@
         <f ca="1">IF(AND($C37="Goal",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1),1,""))</f>
         <v/>
       </c>
-      <c r="J34" s="37" t="str">
-        <f t="shared" ref="J34:S36" ca="1" si="28">IF(AND($C35="Goal",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="L34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="M34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="N34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="O34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="P34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Q34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="R34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="S34" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="T34" s="37" t="str">
-        <f t="shared" ref="T34:AC36" ca="1" si="29">IF(AND($C35="Goal",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="V34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="W34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="X34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Y34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Z34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AA34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AB34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AC34" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AD34" s="37" t="str">
-        <f t="shared" ref="AD34:AM36" ca="1" si="30">IF(AND($C35="Goal",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AF34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AG34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AH34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AI34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AJ34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AK34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AL34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AM34" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="AN34" s="37" t="str">
-        <f t="shared" ref="AN34:AW36" ca="1" si="31">IF(AND($C35="Goal",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AP34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AQ34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AR34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AS34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AT34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AU34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AV34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AW34" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AX34" s="37" t="str">
-        <f t="shared" ref="AX34:BG36" ca="1" si="32">IF(AND($C35="Goal",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AZ34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BA34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BB34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BC34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BD34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BE34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BF34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BG34" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="BH34" s="37" t="str">
-        <f t="shared" ref="BH34:BL36" ca="1" si="33">IF(AND($C35="Goal",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI34" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="BJ34" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="BK34" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="BL34" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="69"/>
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="69"/>
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="69"/>
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="69"/>
+      <c r="AJ34" s="69"/>
+      <c r="AK34" s="69"/>
+      <c r="AL34" s="69"/>
+      <c r="AM34" s="69"/>
+      <c r="AN34" s="69"/>
+      <c r="AO34" s="69"/>
+      <c r="AP34" s="69"/>
+      <c r="AQ34" s="69"/>
+      <c r="AR34" s="69"/>
+      <c r="AS34" s="69"/>
+      <c r="AT34" s="69"/>
+      <c r="AU34" s="69"/>
+      <c r="AV34" s="69"/>
+      <c r="AW34" s="69"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="69"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="37"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="37"/>
     </row>
     <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
-      <c r="B35" s="57" t="s">
-        <v>71</v>
+      <c r="B35" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="31">
-        <v>44058</v>
+        <v>44000</v>
       </c>
       <c r="G35" s="32">
         <v>1</v>
       </c>
       <c r="H35" s="26"/>
-      <c r="I35" s="37"/>
+      <c r="I35" s="37" t="str">
+        <f ca="1">IF(AND($C38="Goal",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),1,""))</f>
+        <v/>
+      </c>
       <c r="J35" s="37" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ref="J35:S37" ca="1" si="28">IF(AND($C36="Goal",J$5&gt;=$F36,J$5&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",J$5&gt;=$F36,J$5&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="K35" s="37" t="str">
@@ -7729,7 +8192,7 @@
         <v/>
       </c>
       <c r="T35" s="37" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ref="T35:AC37" ca="1" si="29">IF(AND($C36="Goal",T$5&gt;=$F36,T$5&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",T$5&gt;=$F36,T$5&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="U35" s="37" t="str">
@@ -7769,7 +8232,7 @@
         <v/>
       </c>
       <c r="AD35" s="37" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ref="AD35:AM37" ca="1" si="30">IF(AND($C36="Goal",AD$5&gt;=$F36,AD$5&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AD$5&gt;=$F36,AD$5&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AE35" s="37" t="str">
@@ -7809,7 +8272,7 @@
         <v/>
       </c>
       <c r="AN35" s="37" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ref="AN35:AW37" ca="1" si="31">IF(AND($C36="Goal",AN$5&gt;=$F36,AN$5&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AN$5&gt;=$F36,AN$5&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AO35" s="37" t="str">
@@ -7849,7 +8312,7 @@
         <v/>
       </c>
       <c r="AX35" s="37" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ref="AX35:BG37" ca="1" si="32">IF(AND($C36="Goal",AX$5&gt;=$F36,AX$5&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AX$5&gt;=$F36,AX$5&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AY35" s="37" t="str">
@@ -7889,7 +8352,7 @@
         <v/>
       </c>
       <c r="BH35" s="37" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ref="BH35:BL37" ca="1" si="33">IF(AND($C36="Goal",BH$5&gt;=$F36,BH$5&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BH$5&gt;=$F36,BH$5&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BI35" s="37" t="str">
@@ -7911,14 +8374,24 @@
     </row>
     <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
-      <c r="B36" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
+      <c r="B36" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0</v>
+      </c>
+      <c r="F36" s="31">
+        <v>44058</v>
+      </c>
+      <c r="G36" s="32">
+        <v>1</v>
+      </c>
       <c r="H36" s="26"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37" t="str">
@@ -8144,92 +8617,244 @@
     </row>
     <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="30">
-        <v>0</v>
-      </c>
-      <c r="F37" s="31">
-        <v>44061</v>
-      </c>
-      <c r="G37" s="32">
-        <v>4</v>
-      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="26"/>
-      <c r="I37" s="37" t="str">
-        <f ca="1">IF(AND($C38="Goal",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",I$5&gt;=$F38,I$5&lt;=$F38+$G38-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="37"/>
-      <c r="AT37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AV37" s="37"/>
-      <c r="AW37" s="37"/>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BB37" s="37"/>
-      <c r="BC37" s="37"/>
-      <c r="BD37" s="37"/>
-      <c r="BE37" s="37"/>
-      <c r="BF37" s="37"/>
-      <c r="BG37" s="37"/>
-      <c r="BH37" s="37"/>
-      <c r="BI37" s="37"/>
-      <c r="BJ37" s="37"/>
-      <c r="BK37" s="37"/>
-      <c r="BL37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S37" s="37" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="U37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="V37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="W37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="X37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="Y37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="Z37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC37" s="37" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AE37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AF37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AG37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AH37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AI37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AJ37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AK37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AL37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AM37" s="37" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AN37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AO37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AP37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AQ37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AR37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AS37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AT37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AU37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AV37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AW37" s="37" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AX37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AY37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AZ37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BA37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BB37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BC37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BD37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BE37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BF37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BG37" s="37" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BH37" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BI37" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BJ37" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BK37" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BL37" s="37" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="49" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>54</v>
@@ -8241,10 +8866,13 @@
         <v>44061</v>
       </c>
       <c r="G38" s="32">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H38" s="26"/>
-      <c r="I38" s="37"/>
+      <c r="I38" s="37" t="str">
+        <f ca="1">IF(AND($C39="Goal",I$5&gt;=$F39,I$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",I$5&gt;=$F39,I$5&lt;=$F39+$G39-1),1,""))</f>
+        <v/>
+      </c>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
@@ -8304,10 +8932,10 @@
     <row r="39" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>54</v>
@@ -8316,241 +8944,76 @@
         <v>0</v>
       </c>
       <c r="F39" s="31">
-        <v>44068</v>
+        <v>44061</v>
       </c>
       <c r="G39" s="32">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="37"/>
-      <c r="J39" s="37" t="str">
-        <f t="shared" ref="J39:AO39" ca="1" si="34">IF(AND($C38="Goal",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="L39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="M39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="N39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="O39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="P39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Q39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="R39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="S39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="T39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="U39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="V39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="W39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="X39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Y39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Z39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AA39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AB39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AC39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AD39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AE39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AF39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AG39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AH39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AI39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AK39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AL39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AM39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AN39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AO39" s="37" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AP39" s="37" t="str">
-        <f t="shared" ref="AP39:BL39" ca="1" si="35">IF(AND($C38="Goal",AP$5&gt;=$F38,AP$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",AP$5&gt;=$F38,AP$5&lt;=$F38+$G38-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AR39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AS39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AT39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AU39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AV39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AW39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AX39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AY39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AZ39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BA39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BB39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BC39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BD39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BE39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BF39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BG39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL39" s="37" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
+      <c r="AK39" s="37"/>
+      <c r="AL39" s="37"/>
+      <c r="AM39" s="37"/>
+      <c r="AN39" s="37"/>
+      <c r="AO39" s="37"/>
+      <c r="AP39" s="37"/>
+      <c r="AQ39" s="37"/>
+      <c r="AR39" s="37"/>
+      <c r="AS39" s="37"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="37"/>
+      <c r="AX39" s="37"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="37"/>
+      <c r="BB39" s="37"/>
+      <c r="BC39" s="37"/>
+      <c r="BD39" s="37"/>
+      <c r="BE39" s="37"/>
+      <c r="BF39" s="37"/>
+      <c r="BG39" s="37"/>
+      <c r="BH39" s="37"/>
+      <c r="BI39" s="37"/>
+      <c r="BJ39" s="37"/>
+      <c r="BK39" s="37"/>
+      <c r="BL39" s="37"/>
     </row>
-    <row r="40" spans="1:64" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="49" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>54</v>
@@ -8559,84 +9022,256 @@
         <v>0</v>
       </c>
       <c r="F40" s="31">
-        <v>44071</v>
+        <v>44068</v>
       </c>
       <c r="G40" s="32">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
-      <c r="AK40" s="37"/>
-      <c r="AL40" s="37"/>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="37"/>
-      <c r="AO40" s="37"/>
-      <c r="AP40" s="37"/>
-      <c r="AQ40" s="37"/>
-      <c r="AR40" s="37"/>
-      <c r="AS40" s="37"/>
-      <c r="AT40" s="37"/>
-      <c r="AU40" s="37"/>
-      <c r="AV40" s="37"/>
-      <c r="AW40" s="37"/>
-      <c r="AX40" s="37"/>
-      <c r="AY40" s="37"/>
-      <c r="AZ40" s="37"/>
-      <c r="BA40" s="37"/>
-      <c r="BB40" s="37"/>
-      <c r="BC40" s="37"/>
-      <c r="BD40" s="37"/>
-      <c r="BE40" s="37"/>
-      <c r="BF40" s="37"/>
-      <c r="BG40" s="37"/>
-      <c r="BH40" s="37"/>
-      <c r="BI40" s="37"/>
-      <c r="BJ40" s="37"/>
-      <c r="BK40" s="37"/>
-      <c r="BL40" s="37"/>
+      <c r="J40" s="37" t="str">
+        <f t="shared" ref="J40:AO40" ca="1" si="34">IF(AND($C39="Goal",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="N40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="O40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="P40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="Q40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="R40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="S40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="T40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="U40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="V40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="W40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="X40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="Y40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="Z40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AA40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AB40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AC40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AD40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AE40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AF40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AH40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AI40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AJ40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AK40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AL40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AM40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AN40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AO40" s="37" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AP40" s="37" t="str">
+        <f t="shared" ref="AP40:BL40" ca="1" si="35">IF(AND($C39="Goal",AP$5&gt;=$F39,AP$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AP$5&gt;=$F39,AP$5&lt;=$F39+$G39-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AR40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AS40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AT40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AU40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AV40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AW40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AX40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AY40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AZ40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BA40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BB40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BC40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BD40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BE40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BF40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BG40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BH40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BI40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BJ40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BK40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BL40" s="37" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
     </row>
-    <row r="41" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:64" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
-      <c r="B41" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="B41" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="30">
+        <v>0</v>
+      </c>
+      <c r="F41" s="31">
+        <v>44071</v>
+      </c>
+      <c r="G41" s="32">
+        <v>19</v>
+      </c>
       <c r="H41" s="26"/>
-      <c r="I41" s="37" t="str">
-        <f t="shared" ref="I41:I50" ca="1" si="36">IF(AND($C39="Goal",I$5&gt;=$F39,I$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",I$5&gt;=$F39,I$5&lt;=$F39+$G39-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
       <c r="L41" s="37"/>
@@ -8693,29 +9328,19 @@
       <c r="BK41" s="37"/>
       <c r="BL41" s="37"/>
     </row>
-    <row r="42" spans="1:64" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
-      <c r="B42" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="30">
-        <v>1</v>
-      </c>
-      <c r="F42" s="31">
-        <v>43984</v>
-      </c>
-      <c r="G42" s="32">
-        <v>2</v>
-      </c>
+      <c r="B42" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="26"/>
       <c r="I42" s="37" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ref="I42:I51" ca="1" si="36">IF(AND($C40="Goal",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",I$5&gt;=$F40,I$5&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="J42" s="37"/>
@@ -8774,10 +9399,10 @@
       <c r="BK42" s="37"/>
       <c r="BL42" s="37"/>
     </row>
-    <row r="43" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:64" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>11</v>
@@ -8786,259 +9411,94 @@
         <v>55</v>
       </c>
       <c r="E43" s="30">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F43" s="31">
         <v>43984</v>
       </c>
       <c r="G43" s="32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="J43" s="37" t="str">
-        <f t="shared" ref="J43:AO43" ca="1" si="37">IF(AND($C39="Goal",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="L43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="M43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="N43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="O43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="P43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="Q43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="R43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="S43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="T43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="U43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="V43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="W43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="X43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="Y43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="Z43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AA43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AB43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AC43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AD43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AE43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AF43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AG43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AH43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AI43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AJ43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AK43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AL43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AM43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AN43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AO43" s="37" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AP43" s="37" t="str">
-        <f t="shared" ref="AP43:BL43" ca="1" si="38">IF(AND($C39="Goal",AP$5&gt;=$F39,AP$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AP$5&gt;=$F39,AP$5&lt;=$F39+$G39-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AR43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AS43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AT43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AU43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AV43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AW43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AX43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AY43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AZ43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BA43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BB43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BC43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BD43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BE43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BF43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BG43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BH43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BI43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BJ43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BK43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BL43" s="37" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="37"/>
+      <c r="AH43" s="37"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37"/>
+      <c r="AK43" s="37"/>
+      <c r="AL43" s="37"/>
+      <c r="AM43" s="37"/>
+      <c r="AN43" s="37"/>
+      <c r="AO43" s="37"/>
+      <c r="AP43" s="37"/>
+      <c r="AQ43" s="37"/>
+      <c r="AR43" s="37"/>
+      <c r="AS43" s="37"/>
+      <c r="AT43" s="37"/>
+      <c r="AU43" s="37"/>
+      <c r="AV43" s="37"/>
+      <c r="AW43" s="37"/>
+      <c r="AX43" s="37"/>
+      <c r="AY43" s="37"/>
+      <c r="AZ43" s="37"/>
+      <c r="BA43" s="37"/>
+      <c r="BB43" s="37"/>
+      <c r="BC43" s="37"/>
+      <c r="BD43" s="37"/>
+      <c r="BE43" s="37"/>
+      <c r="BF43" s="37"/>
+      <c r="BG43" s="37"/>
+      <c r="BH43" s="37"/>
+      <c r="BI43" s="37"/>
+      <c r="BJ43" s="37"/>
+      <c r="BK43" s="37"/>
+      <c r="BL43" s="37"/>
     </row>
     <row r="44" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E44" s="30">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F44" s="31">
-        <v>43990</v>
+        <v>43984</v>
       </c>
       <c r="G44" s="32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="37" t="str">
@@ -9046,247 +9506,245 @@
         <v/>
       </c>
       <c r="J44" s="37" t="str">
-        <f t="shared" ref="J44:AO44" ca="1" si="39">IF(AND($C40="Goal",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="J44:AO44" ca="1" si="37">IF(AND($C40="Goal",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="K44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="L44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="M44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="N44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="O44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="P44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="Q44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="R44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="S44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="T44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="U44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="V44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="W44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="X44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="Y44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="Z44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AA44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AB44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AC44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AD44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AE44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AF44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AG44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AH44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AI44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AJ44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AK44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AL44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AM44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AN44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AO44" s="37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AP44" s="37" t="str">
-        <f t="shared" ref="AP44:BL44" ca="1" si="40">IF(AND($C40="Goal",AP$5&gt;=$F40,AP$5&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AP$5&gt;=$F40,AP$5&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="AP44:BL44" ca="1" si="38">IF(AND($C40="Goal",AP$5&gt;=$F40,AP$5&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AP$5&gt;=$F40,AP$5&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AR44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AS44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AT44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AU44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AV44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AW44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AX44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AY44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AZ44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BA44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BB44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BC44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BD44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BE44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BF44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BG44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BH44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BI44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BJ44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BK44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BL44" s="37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>2</v>
-      </c>
+      <c r="A45" s="14"/>
       <c r="B45" s="49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E45" s="30">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F45" s="31">
         <v>43990</v>
       </c>
       <c r="G45" s="32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="37" t="str">
@@ -9294,704 +9752,719 @@
         <v/>
       </c>
       <c r="J45" s="37" t="str">
-        <f t="shared" ref="J45:AO45" ca="1" si="41">IF(AND($C41="Goal",J$5&gt;=$F41,J$5&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",J$5&gt;=$F41,J$5&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ref="J45:AO45" ca="1" si="39">IF(AND($C41="Goal",J$5&gt;=$F41,J$5&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",J$5&gt;=$F41,J$5&lt;=$F41+$G41-1),1,""))</f>
         <v/>
       </c>
       <c r="K45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="L45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="M45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="O45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="P45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="Q45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="R45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="S45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="T45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="U45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="V45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="W45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="X45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="Y45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="Z45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AA45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AB45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AC45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AD45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AE45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AF45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AG45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AH45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AI45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AJ45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AK45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AL45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AM45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AN45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AO45" s="37" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AP45" s="37" t="str">
-        <f t="shared" ref="AP45:BL45" ca="1" si="42">IF(AND($C41="Goal",AP$5&gt;=$F41,AP$5&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AP$5&gt;=$F41,AP$5&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ref="AP45:BL45" ca="1" si="40">IF(AND($C41="Goal",AP$5&gt;=$F41,AP$5&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AP$5&gt;=$F41,AP$5&lt;=$F41+$G41-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AR45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AS45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AT45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AU45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AV45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AW45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AX45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AY45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AZ45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BA45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BB45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BC45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BD45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BE45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BF45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BG45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BH45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BI45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BJ45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BK45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BL45" s="37" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>30</v>
+    <row r="46" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E46" s="30">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F46" s="31">
-        <v>44012</v>
+        <v>43990</v>
       </c>
       <c r="G46" s="32">
-        <v>1</v>
-      </c>
-      <c r="H46" s="38"/>
+        <v>10</v>
+      </c>
+      <c r="H46" s="26"/>
       <c r="I46" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J46" s="37" t="str">
-        <f t="shared" ref="J46:AO46" ca="1" si="43">IF(AND($C42="Goal",J$5&gt;=$F42,J$5&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",J$5&gt;=$F42,J$5&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ref="J46:AO46" ca="1" si="41">IF(AND($C42="Goal",J$5&gt;=$F42,J$5&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",J$5&gt;=$F42,J$5&lt;=$F42+$G42-1),1,""))</f>
         <v/>
       </c>
       <c r="K46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="L46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="N46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="O46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="P46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="Q46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="R46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="T46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="U46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="V46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="W46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="X46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="Y46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="Z46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AA46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AB46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AC46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AD46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AE46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AF46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AG46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AH46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AI46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AJ46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AK46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AL46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AM46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AN46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AO46" s="37" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AP46" s="37" t="str">
-        <f t="shared" ref="AP46:BL46" ca="1" si="44">IF(AND($C42="Goal",AP$5&gt;=$F42,AP$5&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AP$5&gt;=$F42,AP$5&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ref="AP46:BL46" ca="1" si="42">IF(AND($C42="Goal",AP$5&gt;=$F42,AP$5&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AP$5&gt;=$F42,AP$5&lt;=$F42+$G42-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AR46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AS46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AT46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AU46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AV46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AW46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AX46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AY46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AZ46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BA46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BB46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BC46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BD46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BE46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BF46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BG46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BH46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BI46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BJ46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BK46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BL46" s="37" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="49"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="4"/>
+    <row r="47" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="30">
+        <v>0</v>
+      </c>
+      <c r="F47" s="31">
+        <v>44012</v>
+      </c>
+      <c r="G47" s="32">
+        <v>1</v>
+      </c>
+      <c r="H47" s="38"/>
       <c r="I47" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J47" s="37" t="str">
-        <f t="shared" ref="J47:AO47" ca="1" si="45">IF(AND($C43="Goal",J$5&gt;=$F43,J$5&lt;=$F43+$G43-1),2,IF(AND($C43="Milestone",J$5&gt;=$F43,J$5&lt;=$F43+$G43-1),1,""))</f>
+        <f t="shared" ref="J47:AO47" ca="1" si="43">IF(AND($C43="Goal",J$5&gt;=$F43,J$5&lt;=$F43+$G43-1),2,IF(AND($C43="Milestone",J$5&gt;=$F43,J$5&lt;=$F43+$G43-1),1,""))</f>
         <v/>
       </c>
       <c r="K47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="L47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="M47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="N47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="O47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="P47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="Q47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="R47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="T47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="U47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="V47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="W47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="X47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="Y47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="Z47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AA47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AB47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AC47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AD47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AE47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AF47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AG47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AH47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AI47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AJ47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AK47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AL47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AM47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AN47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AO47" s="37" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AP47" s="37" t="str">
-        <f t="shared" ref="AP47:BL47" ca="1" si="46">IF(AND($C43="Goal",AP$5&gt;=$F43,AP$5&lt;=$F43+$G43-1),2,IF(AND($C43="Milestone",AP$5&gt;=$F43,AP$5&lt;=$F43+$G43-1),1,""))</f>
+        <f t="shared" ref="AP47:BL47" ca="1" si="44">IF(AND($C43="Goal",AP$5&gt;=$F43,AP$5&lt;=$F43+$G43-1),2,IF(AND($C43="Milestone",AP$5&gt;=$F43,AP$5&lt;=$F43+$G43-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AR47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AS47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AT47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AU47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AV47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AW47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AX47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AY47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AZ47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BA47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BB47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BC47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BD47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BE47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BF47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BG47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BH47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BI47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BJ47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BK47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BL47" s="37" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
     </row>
@@ -10002,1195 +10475,1428 @@
       <c r="E48" s="30"/>
       <c r="F48" s="31"/>
       <c r="G48" s="32"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J48" s="37" t="str">
-        <f t="shared" ref="J48:AO48" ca="1" si="47">IF(AND($C44="Goal",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),2,IF(AND($C44="Milestone",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),1,""))</f>
+        <f t="shared" ref="J48:AO48" ca="1" si="45">IF(AND($C44="Goal",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),2,IF(AND($C44="Milestone",J$5&gt;=$F44,J$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="K48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="L48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="M48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="O48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="P48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="Q48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="R48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="S48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="T48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="U48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="V48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="W48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="X48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="Y48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="Z48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AA48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AB48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AC48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AD48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AE48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AF48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AG48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AH48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AI48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AJ48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AK48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AL48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AM48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AN48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AO48" s="37" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AP48" s="37" t="str">
-        <f t="shared" ref="AP48:BL48" ca="1" si="48">IF(AND($C44="Goal",AP$5&gt;=$F44,AP$5&lt;=$F44+$G44-1),2,IF(AND($C44="Milestone",AP$5&gt;=$F44,AP$5&lt;=$F44+$G44-1),1,""))</f>
+        <f t="shared" ref="AP48:BL48" ca="1" si="46">IF(AND($C44="Goal",AP$5&gt;=$F44,AP$5&lt;=$F44+$G44-1),2,IF(AND($C44="Milestone",AP$5&gt;=$F44,AP$5&lt;=$F44+$G44-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AR48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AS48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AT48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AU48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AV48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AW48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AX48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AY48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AZ48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BA48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BB48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BC48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BD48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BE48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BF48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BG48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BH48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BI48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BJ48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BK48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BL48" s="37" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="24"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
       <c r="I49" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J49" s="37" t="str">
-        <f t="shared" ref="J49:AO49" ca="1" si="49">IF(AND($C45="Goal",J$5&gt;=$F45,J$5&lt;=$F45+$G45-1),2,IF(AND($C45="Milestone",J$5&gt;=$F45,J$5&lt;=$F45+$G45-1),1,""))</f>
+        <f t="shared" ref="J49:AO49" ca="1" si="47">IF(AND($C45="Goal",J$5&gt;=$F45,J$5&lt;=$F45+$G45-1),2,IF(AND($C45="Milestone",J$5&gt;=$F45,J$5&lt;=$F45+$G45-1),1,""))</f>
         <v/>
       </c>
       <c r="K49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="L49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="M49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="N49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="O49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="P49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="Q49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="R49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="T49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="U49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="V49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="W49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="X49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="Y49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="Z49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AA49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AB49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AC49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AD49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AE49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AF49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AG49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AH49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AI49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AJ49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AK49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AL49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AM49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AN49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AO49" s="37" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AP49" s="37" t="str">
-        <f t="shared" ref="AP49:BL49" ca="1" si="50">IF(AND($C45="Goal",AP$5&gt;=$F45,AP$5&lt;=$F45+$G45-1),2,IF(AND($C45="Milestone",AP$5&gt;=$F45,AP$5&lt;=$F45+$G45-1),1,""))</f>
+        <f t="shared" ref="AP49:BL49" ca="1" si="48">IF(AND($C45="Goal",AP$5&gt;=$F45,AP$5&lt;=$F45+$G45-1),2,IF(AND($C45="Milestone",AP$5&gt;=$F45,AP$5&lt;=$F45+$G45-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AR49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AS49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AT49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AU49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AV49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AW49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AX49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AY49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AZ49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BA49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BB49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BC49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BD49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BE49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BF49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BG49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BH49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BI49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BJ49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BK49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BL49" s="37" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="5"/>
-      <c r="G50" s="16"/>
+      <c r="B50" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="24"/>
       <c r="I50" s="37" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="J50" s="37" t="str">
-        <f t="shared" ref="J50:AO50" ca="1" si="51">IF(AND($C46="Goal",J$5&gt;=$F46,J$5&lt;=$F46+$G46-1),2,IF(AND($C46="Milestone",J$5&gt;=$F46,J$5&lt;=$F46+$G46-1),1,""))</f>
+        <f t="shared" ref="J50:AO50" ca="1" si="49">IF(AND($C46="Goal",J$5&gt;=$F46,J$5&lt;=$F46+$G46-1),2,IF(AND($C46="Milestone",J$5&gt;=$F46,J$5&lt;=$F46+$G46-1),1,""))</f>
         <v/>
       </c>
       <c r="K50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="L50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="M50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="N50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="O50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="P50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Q50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="R50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="S50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="T50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="U50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="V50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="W50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="X50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Y50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Z50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AA50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AB50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AC50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AD50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AE50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AF50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AG50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AH50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AI50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AJ50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AK50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AL50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AM50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AN50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AO50" s="37" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AP50" s="37" t="str">
+        <f t="shared" ref="AP50:BL50" ca="1" si="50">IF(AND($C46="Goal",AP$5&gt;=$F46,AP$5&lt;=$F46+$G46-1),2,IF(AND($C46="Milestone",AP$5&gt;=$F46,AP$5&lt;=$F46+$G46-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AR50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AS50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AT50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AU50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AV50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AW50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AX50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AY50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AZ50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BA50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BB50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BC50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BD50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BE50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BF50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BG50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BH50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BI50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BJ50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BK50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="BL50" s="37" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="5"/>
+      <c r="G51" s="16"/>
+      <c r="I51" s="37" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="J51" s="37" t="str">
+        <f t="shared" ref="J51:AO51" ca="1" si="51">IF(AND($C47="Goal",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),2,IF(AND($C47="Milestone",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="L50" s="37" t="str">
+      <c r="L51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="M50" s="37" t="str">
+      <c r="M51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="N50" s="37" t="str">
+      <c r="N51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="O50" s="37" t="str">
+      <c r="O51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="P50" s="37" t="str">
+      <c r="P51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="Q50" s="37" t="str">
+      <c r="Q51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="R50" s="37" t="str">
+      <c r="R51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="S50" s="37" t="str">
+      <c r="S51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="T50" s="37" t="str">
+      <c r="T51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="U50" s="37" t="str">
+      <c r="U51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="V50" s="37" t="str">
+      <c r="V51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="W50" s="37" t="str">
+      <c r="W51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="X50" s="37" t="str">
+      <c r="X51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="Y50" s="37" t="str">
+      <c r="Y51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="Z50" s="37" t="str">
+      <c r="Z51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AA50" s="37" t="str">
+      <c r="AA51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AB50" s="37" t="str">
+      <c r="AB51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AC50" s="37" t="str">
+      <c r="AC51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AD50" s="37" t="str">
+      <c r="AD51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AE50" s="37" t="str">
+      <c r="AE51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AF50" s="37" t="str">
+      <c r="AF51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AG50" s="37" t="str">
+      <c r="AG51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AH50" s="37" t="str">
+      <c r="AH51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AI50" s="37" t="str">
+      <c r="AI51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AJ50" s="37" t="str">
+      <c r="AJ51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AK50" s="37" t="str">
+      <c r="AK51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AL50" s="37">
+      <c r="AL51" s="37">
         <f t="shared" ca="1" si="51"/>
         <v>1</v>
       </c>
-      <c r="AM50" s="37" t="str">
+      <c r="AM51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AN50" s="37" t="str">
+      <c r="AN51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AO50" s="37" t="str">
+      <c r="AO51" s="37" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="AP50" s="37" t="str">
-        <f t="shared" ref="AP50:BL50" ca="1" si="52">IF(AND($C46="Goal",AP$5&gt;=$F46,AP$5&lt;=$F46+$G46-1),2,IF(AND($C46="Milestone",AP$5&gt;=$F46,AP$5&lt;=$F46+$G46-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ50" s="37" t="str">
+      <c r="AP51" s="37" t="str">
+        <f t="shared" ref="AP51:BL51" ca="1" si="52">IF(AND($C47="Goal",AP$5&gt;=$F47,AP$5&lt;=$F47+$G47-1),2,IF(AND($C47="Milestone",AP$5&gt;=$F47,AP$5&lt;=$F47+$G47-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AR50" s="37" t="str">
+      <c r="AR51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AS50" s="37" t="str">
+      <c r="AS51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AT50" s="37" t="str">
+      <c r="AT51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AU50" s="37" t="str">
+      <c r="AU51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AV50" s="37" t="str">
+      <c r="AV51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AW50" s="37" t="str">
+      <c r="AW51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AX50" s="37" t="str">
+      <c r="AX51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AY50" s="37" t="str">
+      <c r="AY51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="AZ50" s="37" t="str">
+      <c r="AZ51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BA50" s="37" t="str">
+      <c r="BA51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BB50" s="37" t="str">
+      <c r="BB51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BC50" s="37" t="str">
+      <c r="BC51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BD50" s="37" t="str">
+      <c r="BD51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BE50" s="37" t="str">
+      <c r="BE51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BF50" s="37" t="str">
+      <c r="BF51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BG50" s="37" t="str">
+      <c r="BG51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BH50" s="37" t="str">
+      <c r="BH51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BI50" s="37" t="str">
+      <c r="BI51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BJ50" s="37" t="str">
+      <c r="BJ51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BK50" s="37" t="str">
+      <c r="BK51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="BL50" s="37" t="str">
+      <c r="BL51" s="37" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="6"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37" t="str">
-        <f t="shared" ref="J51:AO51" ca="1" si="53">IF(AND($C47="Goal",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),2,IF(AND($C47="Milestone",J$5&gt;=$F47,J$5&lt;=$F47+$G47-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K51" s="37" t="str">
+    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="6"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37" t="str">
+        <f t="shared" ref="J52:AO52" ca="1" si="53">IF(AND($C48="Goal",J$5&gt;=$F48,J$5&lt;=$F48+$G48-1),2,IF(AND($C48="Milestone",J$5&gt;=$F48,J$5&lt;=$F48+$G48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="L51" s="37" t="str">
+      <c r="L52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="M51" s="37" t="str">
+      <c r="M52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="N51" s="37" t="str">
+      <c r="N52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="O51" s="37" t="str">
+      <c r="O52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="P51" s="37" t="str">
+      <c r="P52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="Q51" s="37" t="str">
+      <c r="Q52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="R51" s="37" t="str">
+      <c r="R52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="S51" s="37" t="str">
+      <c r="S52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="T51" s="37" t="str">
+      <c r="T52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="U51" s="37" t="str">
+      <c r="U52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="V51" s="37" t="str">
+      <c r="V52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="W51" s="37" t="str">
+      <c r="W52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="X51" s="37" t="str">
+      <c r="X52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="Y51" s="37" t="str">
+      <c r="Y52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="Z51" s="37" t="str">
+      <c r="Z52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AA51" s="37" t="str">
+      <c r="AA52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AB51" s="37" t="str">
+      <c r="AB52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AC51" s="37" t="str">
+      <c r="AC52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AD51" s="37" t="str">
+      <c r="AD52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AE51" s="37" t="str">
+      <c r="AE52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AF51" s="37" t="str">
+      <c r="AF52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AG51" s="37" t="str">
+      <c r="AG52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AH51" s="37" t="str">
+      <c r="AH52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AI51" s="37" t="str">
+      <c r="AI52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AJ51" s="37" t="str">
+      <c r="AJ52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AK51" s="37" t="str">
+      <c r="AK52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AL51" s="37" t="str">
+      <c r="AL52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AM51" s="37" t="str">
+      <c r="AM52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AN51" s="37" t="str">
+      <c r="AN52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AO51" s="37" t="str">
+      <c r="AO52" s="37" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AP51" s="37" t="str">
-        <f t="shared" ref="AP51:BL51" ca="1" si="54">IF(AND($C47="Goal",AP$5&gt;=$F47,AP$5&lt;=$F47+$G47-1),2,IF(AND($C47="Milestone",AP$5&gt;=$F47,AP$5&lt;=$F47+$G47-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ51" s="37" t="str">
+      <c r="AP52" s="37" t="str">
+        <f t="shared" ref="AP52:BL52" ca="1" si="54">IF(AND($C48="Goal",AP$5&gt;=$F48,AP$5&lt;=$F48+$G48-1),2,IF(AND($C48="Milestone",AP$5&gt;=$F48,AP$5&lt;=$F48+$G48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AR51" s="37" t="str">
+      <c r="AR52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AS51" s="37" t="str">
+      <c r="AS52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AT51" s="37" t="str">
+      <c r="AT52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AU51" s="37" t="str">
+      <c r="AU52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AV51" s="37" t="str">
+      <c r="AV52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AW51" s="37" t="str">
+      <c r="AW52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AX51" s="37" t="str">
+      <c r="AX52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AY51" s="37" t="str">
+      <c r="AY52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="AZ51" s="37" t="str">
+      <c r="AZ52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BA51" s="37" t="str">
+      <c r="BA52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BB51" s="37" t="str">
+      <c r="BB52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BC51" s="37" t="str">
+      <c r="BC52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BD51" s="37" t="str">
+      <c r="BD52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BE51" s="37" t="str">
+      <c r="BE52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BF51" s="37" t="str">
+      <c r="BF52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BG51" s="37" t="str">
+      <c r="BG52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BH51" s="37" t="str">
+      <c r="BH52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BI51" s="37" t="str">
+      <c r="BI52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BJ51" s="37" t="str">
+      <c r="BJ52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BK51" s="37" t="str">
+      <c r="BK52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="BL51" s="37" t="str">
+      <c r="BL52" s="37" t="str">
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J52" s="37" t="str">
-        <f t="shared" ref="J52:AO52" ca="1" si="55">IF(AND($C48="Goal",J$5&gt;=$F48,J$5&lt;=$F48+$G48-1),2,IF(AND($C48="Milestone",J$5&gt;=$F48,J$5&lt;=$F48+$G48-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K52" s="37" t="str">
+    <row r="53" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="37" t="str">
+        <f t="shared" ref="J53:AO53" ca="1" si="55">IF(AND($C49="Goal",J$5&gt;=$F49,J$5&lt;=$F49+$G49-1),2,IF(AND($C49="Milestone",J$5&gt;=$F49,J$5&lt;=$F49+$G49-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="L52" s="37" t="str">
+      <c r="L53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="M52" s="37" t="str">
+      <c r="M53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="N52" s="37" t="str">
+      <c r="N53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="O52" s="37" t="str">
+      <c r="O53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="P52" s="37" t="str">
+      <c r="P53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="Q52" s="37" t="str">
+      <c r="Q53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="R52" s="37" t="str">
+      <c r="R53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="S52" s="37" t="str">
+      <c r="S53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="T52" s="37" t="str">
+      <c r="T53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="U52" s="37" t="str">
+      <c r="U53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="V52" s="37" t="str">
+      <c r="V53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="W52" s="37" t="str">
+      <c r="W53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="X52" s="37" t="str">
+      <c r="X53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="Y52" s="37" t="str">
+      <c r="Y53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="Z52" s="37" t="str">
+      <c r="Z53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AA52" s="37" t="str">
+      <c r="AA53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AB52" s="37" t="str">
+      <c r="AB53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AC52" s="37" t="str">
+      <c r="AC53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AD52" s="37" t="str">
+      <c r="AD53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AE52" s="37" t="str">
+      <c r="AE53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AF52" s="37" t="str">
+      <c r="AF53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AG52" s="37" t="str">
+      <c r="AG53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AH52" s="37" t="str">
+      <c r="AH53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AI52" s="37" t="str">
+      <c r="AI53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AJ52" s="37" t="str">
+      <c r="AJ53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AK52" s="37" t="str">
+      <c r="AK53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AL52" s="37" t="str">
+      <c r="AL53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AM52" s="37" t="str">
+      <c r="AM53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AN52" s="37" t="str">
+      <c r="AN53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AO52" s="37" t="str">
+      <c r="AO53" s="37" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="AP52" s="37" t="str">
-        <f t="shared" ref="AP52:BL52" ca="1" si="56">IF(AND($C48="Goal",AP$5&gt;=$F48,AP$5&lt;=$F48+$G48-1),2,IF(AND($C48="Milestone",AP$5&gt;=$F48,AP$5&lt;=$F48+$G48-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ52" s="37" t="str">
+      <c r="AP53" s="37" t="str">
+        <f t="shared" ref="AP53:BL53" ca="1" si="56">IF(AND($C49="Goal",AP$5&gt;=$F49,AP$5&lt;=$F49+$G49-1),2,IF(AND($C49="Milestone",AP$5&gt;=$F49,AP$5&lt;=$F49+$G49-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AR52" s="37" t="str">
+      <c r="AR53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AS52" s="37" t="str">
+      <c r="AS53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AT52" s="37" t="str">
+      <c r="AT53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AU52" s="37" t="str">
+      <c r="AU53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AV52" s="37" t="str">
+      <c r="AV53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AW52" s="37" t="str">
+      <c r="AW53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AX52" s="37" t="str">
+      <c r="AX53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AY52" s="37" t="str">
+      <c r="AY53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="AZ52" s="37" t="str">
+      <c r="AZ53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BA52" s="37" t="str">
+      <c r="BA53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BB52" s="37" t="str">
+      <c r="BB53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BC52" s="37" t="str">
+      <c r="BC53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BD52" s="37" t="str">
+      <c r="BD53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BE52" s="37" t="str">
+      <c r="BE53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BF52" s="37" t="str">
+      <c r="BF53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BG52" s="37" t="str">
+      <c r="BG53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BH52" s="37" t="str">
+      <c r="BH53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BI52" s="37" t="str">
+      <c r="BI53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BJ52" s="37" t="str">
+      <c r="BJ53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BK52" s="37" t="str">
+      <c r="BK53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="BL52" s="37" t="str">
+      <c r="BL53" s="37" t="str">
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
-      <c r="AC53" s="36"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="36"/>
-      <c r="AF53" s="36"/>
-      <c r="AG53" s="36"/>
-      <c r="AH53" s="36"/>
-      <c r="AI53" s="36"/>
-      <c r="AJ53" s="36"/>
-      <c r="AK53" s="36"/>
-      <c r="AL53" s="36"/>
-      <c r="AM53" s="36"/>
-      <c r="AN53" s="36"/>
-      <c r="AO53" s="36"/>
-      <c r="AP53" s="36"/>
-      <c r="AQ53" s="36"/>
-      <c r="AR53" s="36"/>
-      <c r="AS53" s="36"/>
-      <c r="AT53" s="36"/>
-      <c r="AU53" s="36"/>
-      <c r="AV53" s="36"/>
-      <c r="AW53" s="36"/>
-      <c r="AX53" s="36"/>
-      <c r="AY53" s="36"/>
-      <c r="AZ53" s="36"/>
-      <c r="BA53" s="36"/>
-      <c r="BB53" s="36"/>
-      <c r="BC53" s="36"/>
-      <c r="BD53" s="36"/>
-      <c r="BE53" s="36"/>
-      <c r="BF53" s="36"/>
-      <c r="BG53" s="36"/>
-      <c r="BH53" s="36"/>
-      <c r="BI53" s="36"/>
-      <c r="BJ53" s="36"/>
-      <c r="BK53" s="36"/>
-      <c r="BL53" s="36"/>
+    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="36"/>
+      <c r="AA54" s="36"/>
+      <c r="AB54" s="36"/>
+      <c r="AC54" s="36"/>
+      <c r="AD54" s="36"/>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="36"/>
+      <c r="AG54" s="36"/>
+      <c r="AH54" s="36"/>
+      <c r="AI54" s="36"/>
+      <c r="AJ54" s="36"/>
+      <c r="AK54" s="36"/>
+      <c r="AL54" s="36"/>
+      <c r="AM54" s="36"/>
+      <c r="AN54" s="36"/>
+      <c r="AO54" s="36"/>
+      <c r="AP54" s="36"/>
+      <c r="AQ54" s="36"/>
+      <c r="AR54" s="36"/>
+      <c r="AS54" s="36"/>
+      <c r="AT54" s="36"/>
+      <c r="AU54" s="36"/>
+      <c r="AV54" s="36"/>
+      <c r="AW54" s="36"/>
+      <c r="AX54" s="36"/>
+      <c r="AY54" s="36"/>
+      <c r="AZ54" s="36"/>
+      <c r="BA54" s="36"/>
+      <c r="BB54" s="36"/>
+      <c r="BC54" s="36"/>
+      <c r="BD54" s="36"/>
+      <c r="BE54" s="36"/>
+      <c r="BF54" s="36"/>
+      <c r="BG54" s="36"/>
+      <c r="BH54" s="36"/>
+      <c r="BI54" s="36"/>
+      <c r="BJ54" s="36"/>
+      <c r="BK54" s="36"/>
+      <c r="BL54" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11204,8 +11910,8 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="S2:V2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E46:E48 E7:E43">
-    <cfRule type="dataBar" priority="39">
+  <conditionalFormatting sqref="E47:E49 E7:E44">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11218,62 +11924,62 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL19 I20:I51 J20:BL53">
-    <cfRule type="expression" dxfId="0" priority="32">
+  <conditionalFormatting sqref="I5:BL19 I20:I52 J20:BL24 J26:BL54 J25:W25 AI25:BL25 Y25:AE25">
+    <cfRule type="expression" dxfId="98" priority="57">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="68" priority="38">
+    <cfRule type="expression" dxfId="97" priority="63">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="67" priority="34">
+    <cfRule type="expression" dxfId="96" priority="59">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="66" priority="33">
+    <cfRule type="expression" dxfId="95" priority="58">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL19 I20 J20:BL21 J25:BL27 J38:BL38">
-    <cfRule type="expression" dxfId="65" priority="55" stopIfTrue="1">
+  <conditionalFormatting sqref="I8:BL19 I20 J20:BL21 J26:BL28 J39:BL39">
+    <cfRule type="expression" dxfId="94" priority="80" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="99" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="117" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="118" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="119" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51 J53:BL53">
-    <cfRule type="expression" dxfId="60" priority="102" stopIfTrue="1">
+  <conditionalFormatting sqref="I52 J54:BL54">
+    <cfRule type="expression" dxfId="89" priority="127" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="128" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="129" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="130" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="131" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="E45">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11286,8 +11992,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="E46">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11300,198 +12006,308 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I24 I33:I35">
-    <cfRule type="expression" dxfId="55" priority="158" stopIfTrue="1">
-      <formula>AND($C25="Low Risk",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
+  <conditionalFormatting sqref="I34:I36">
+    <cfRule type="expression" dxfId="84" priority="183" stopIfTrue="1">
+      <formula>AND($C37="Low Risk",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="159" stopIfTrue="1">
-      <formula>AND($C25="High Risk",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
+    <cfRule type="expression" dxfId="83" priority="184" stopIfTrue="1">
+      <formula>AND($C37="High Risk",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="160" stopIfTrue="1">
-      <formula>AND($C25="On Track",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
+    <cfRule type="expression" dxfId="82" priority="185" stopIfTrue="1">
+      <formula>AND($C37="On Track",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="161" stopIfTrue="1">
-      <formula>AND($C25="Med Risk",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
+    <cfRule type="expression" dxfId="81" priority="186" stopIfTrue="1">
+      <formula>AND($C37="Med Risk",I$5&gt;=$F37,I$5&lt;=$F37+$G37-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="162" stopIfTrue="1">
-      <formula>AND(LEN($C25)=0,I$5&gt;=$F25,I$5&lt;=$F25+$G25-1)</formula>
+    <cfRule type="expression" dxfId="80" priority="187" stopIfTrue="1">
+      <formula>AND(LEN($C37)=0,I$5&gt;=$F37,I$5&lt;=$F37+$G37-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21 J28:BL32 J39:BL42">
-    <cfRule type="expression" dxfId="50" priority="228" stopIfTrue="1">
+  <conditionalFormatting sqref="I21 J40:BL43 J29:BL33">
+    <cfRule type="expression" dxfId="79" priority="253" stopIfTrue="1">
       <formula>AND($C20="Low Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="254" stopIfTrue="1">
       <formula>AND($C20="High Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="255" stopIfTrue="1">
       <formula>AND($C20="On Track",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="256" stopIfTrue="1">
       <formula>AND($C20="Med Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="257" stopIfTrue="1">
       <formula>AND(LEN($C20)=0,I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25 I36">
-    <cfRule type="expression" dxfId="45" priority="238" stopIfTrue="1">
-      <formula>AND($C27="Low Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+  <conditionalFormatting sqref="I26 I37">
+    <cfRule type="expression" dxfId="74" priority="263" stopIfTrue="1">
+      <formula>AND($C28="Low Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="239" stopIfTrue="1">
-      <formula>AND($C27="High Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+    <cfRule type="expression" dxfId="73" priority="264" stopIfTrue="1">
+      <formula>AND($C28="High Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="240" stopIfTrue="1">
-      <formula>AND($C27="On Track",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+    <cfRule type="expression" dxfId="72" priority="265" stopIfTrue="1">
+      <formula>AND($C28="On Track",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="241" stopIfTrue="1">
-      <formula>AND($C27="Med Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+    <cfRule type="expression" dxfId="71" priority="266" stopIfTrue="1">
+      <formula>AND($C28="Med Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="242" stopIfTrue="1">
-      <formula>AND(LEN($C27)=0,I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+    <cfRule type="expression" dxfId="70" priority="267" stopIfTrue="1">
+      <formula>AND(LEN($C28)=0,I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:BL22 J33:BL33 I41:I50">
-    <cfRule type="expression" dxfId="40" priority="252" stopIfTrue="1">
+  <conditionalFormatting sqref="J22:BL22 J34:BL34 I42:I51">
+    <cfRule type="expression" dxfId="69" priority="277" stopIfTrue="1">
       <formula>AND($C20="Low Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="278" stopIfTrue="1">
       <formula>AND($C20="High Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="279" stopIfTrue="1">
       <formula>AND($C20="On Track",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="280" stopIfTrue="1">
       <formula>AND($C20="Med Risk",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="281" stopIfTrue="1">
       <formula>AND(LEN($C20)=0,I$5&gt;=$F20,I$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I30 J34:BL37 I37:I40">
-    <cfRule type="expression" dxfId="35" priority="276" stopIfTrue="1">
-      <formula>AND($C27="Low Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+  <conditionalFormatting sqref="I27:I31 I38:I41 J35:BL38">
+    <cfRule type="expression" dxfId="64" priority="301" stopIfTrue="1">
+      <formula>AND($C28="Low Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="277" stopIfTrue="1">
-      <formula>AND($C27="High Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+    <cfRule type="expression" dxfId="63" priority="302" stopIfTrue="1">
+      <formula>AND($C28="High Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="278" stopIfTrue="1">
-      <formula>AND($C27="On Track",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+    <cfRule type="expression" dxfId="62" priority="303" stopIfTrue="1">
+      <formula>AND($C28="On Track",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="279" stopIfTrue="1">
-      <formula>AND($C27="Med Risk",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+    <cfRule type="expression" dxfId="61" priority="304" stopIfTrue="1">
+      <formula>AND($C28="Med Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="280" stopIfTrue="1">
-      <formula>AND(LEN($C27)=0,I$5&gt;=$F27,I$5&lt;=$F27+$G27-1)</formula>
+    <cfRule type="expression" dxfId="60" priority="305" stopIfTrue="1">
+      <formula>AND(LEN($C28)=0,I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:BL24">
-    <cfRule type="expression" dxfId="30" priority="316" stopIfTrue="1">
+  <conditionalFormatting sqref="J23:BL24 J25:W25 AI25:BL25 Y25:AE25">
+    <cfRule type="expression" dxfId="59" priority="341" stopIfTrue="1">
       <formula>AND($C20="Low Risk",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="342" stopIfTrue="1">
       <formula>AND($C20="High Risk",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="343" stopIfTrue="1">
       <formula>AND($C20="On Track",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="344" stopIfTrue="1">
       <formula>AND($C20="Med Risk",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="345" stopIfTrue="1">
       <formula>AND(LEN($C20)=0,J$5&gt;=$F20,J$5&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:BL52">
-    <cfRule type="expression" dxfId="25" priority="394" stopIfTrue="1">
-      <formula>AND($C39="Low Risk",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
+  <conditionalFormatting sqref="J44:BL53">
+    <cfRule type="expression" dxfId="54" priority="419" stopIfTrue="1">
+      <formula>AND($C40="Low Risk",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="395" stopIfTrue="1">
-      <formula>AND($C39="High Risk",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
+    <cfRule type="expression" dxfId="53" priority="420" stopIfTrue="1">
+      <formula>AND($C40="High Risk",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="396" stopIfTrue="1">
-      <formula>AND($C39="On Track",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
+    <cfRule type="expression" dxfId="52" priority="421" stopIfTrue="1">
+      <formula>AND($C40="On Track",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="397" stopIfTrue="1">
-      <formula>AND($C39="Med Risk",J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
+    <cfRule type="expression" dxfId="51" priority="422" stopIfTrue="1">
+      <formula>AND($C40="Med Risk",J$5&gt;=$F40,J$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="398" stopIfTrue="1">
-      <formula>AND(LEN($C39)=0,J$5&gt;=$F39,J$5&lt;=$F39+$G39-1)</formula>
+    <cfRule type="expression" dxfId="50" priority="423" stopIfTrue="1">
+      <formula>AND(LEN($C40)=0,J$5&gt;=$F40,J$5&lt;=$F40+$G40-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22">
-    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="36" stopIfTrue="1">
       <formula>AND($C22="Low Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="37" stopIfTrue="1">
       <formula>AND($C22="High Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="38" stopIfTrue="1">
       <formula>AND($C22="On Track",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="39" stopIfTrue="1">
       <formula>AND($C22="Med Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="40" stopIfTrue="1">
       <formula>AND(LEN($C22)=0,X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
       <formula>AND($C23="Low Risk",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="32" stopIfTrue="1">
       <formula>AND($C23="High Risk",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
       <formula>AND($C23="On Track",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
       <formula>AND($C23="Med Risk",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
       <formula>AND(LEN($C23)=0,X$5&gt;=$F23,X$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="26" stopIfTrue="1">
       <formula>AND($C23="Low Risk",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="27" stopIfTrue="1">
       <formula>AND($C23="High Risk",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="28" stopIfTrue="1">
       <formula>AND($C23="On Track",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="29" stopIfTrue="1">
       <formula>AND($C23="Med Risk",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
       <formula>AND(LEN($C23)=0,Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:I32">
-    <cfRule type="expression" dxfId="5" priority="399" stopIfTrue="1">
-      <formula>AND($C35="Low Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+  <conditionalFormatting sqref="I22:I25 I32:I33">
+    <cfRule type="expression" dxfId="34" priority="424" stopIfTrue="1">
+      <formula>AND($C26="Low Risk",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="400" stopIfTrue="1">
-      <formula>AND($C35="High Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+    <cfRule type="expression" dxfId="33" priority="425" stopIfTrue="1">
+      <formula>AND($C26="High Risk",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="401" stopIfTrue="1">
-      <formula>AND($C35="On Track",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+    <cfRule type="expression" dxfId="32" priority="426" stopIfTrue="1">
+      <formula>AND($C26="On Track",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="402" stopIfTrue="1">
-      <formula>AND($C35="Med Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+    <cfRule type="expression" dxfId="31" priority="427" stopIfTrue="1">
+      <formula>AND($C26="Med Risk",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="403" stopIfTrue="1">
-      <formula>AND(LEN($C35)=0,I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+    <cfRule type="expression" dxfId="30" priority="428" stopIfTrue="1">
+      <formula>AND(LEN($C26)=0,I$5&gt;=$F26,I$5&lt;=$F26+$G26-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="expression" dxfId="29" priority="430">
+      <formula>AND(TODAY()&gt;=X$5,TODAY()&lt;Y$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="expression" dxfId="28" priority="461" stopIfTrue="1">
+      <formula>AND($C22="Low Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="462" stopIfTrue="1">
+      <formula>AND($C22="High Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="463" stopIfTrue="1">
+      <formula>AND($C22="On Track",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="464" stopIfTrue="1">
+      <formula>AND($C22="Med Risk",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="465" stopIfTrue="1">
+      <formula>AND(LEN($C22)=0,X$5&gt;=$F22,X$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="expression" dxfId="23" priority="14">
+      <formula>AND(TODAY()&gt;=V$5,TODAY()&lt;W$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
+      <formula>AND($C22="Low Risk",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
+      <formula>AND($C22="High Risk",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="17" stopIfTrue="1">
+      <formula>AND($C22="On Track",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+      <formula>AND($C22="Med Risk",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>AND(LEN($C22)=0,V$5&gt;=$F22,V$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="expression" dxfId="17" priority="467">
+      <formula>AND(TODAY()&gt;=AF$5,TODAY()&lt;AG$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="expression" dxfId="16" priority="498" stopIfTrue="1">
+      <formula>AND($C22="Low Risk",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="499" stopIfTrue="1">
+      <formula>AND($C22="High Risk",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="500" stopIfTrue="1">
+      <formula>AND($C22="On Track",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="501" stopIfTrue="1">
+      <formula>AND($C22="Med Risk",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="502" stopIfTrue="1">
+      <formula>AND(LEN($C22)=0,AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+      <formula>AND($C22="Low Risk",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+      <formula>AND($C22="High Risk",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>AND($C22="On Track",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>AND($C22="Med Risk",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>AND(LEN($C22)=0,U$5&gt;=$F22,U$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=AE$5,TODAY()&lt;AF$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+      <formula>AND($C22="Low Risk",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+      <formula>AND($C22="High Risk",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
+      <formula>AND($C22="On Track",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>AND($C22="Med Risk",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>AND(LEN($C22)=0,AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C48" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C49" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
@@ -11553,7 +12369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E46:E48 E7:E43</xm:sqref>
+          <xm:sqref>E47:E49 E7:E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{472010C4-7FB5-416C-8D02-D6C3E4F5F0A8}">
@@ -11568,7 +12384,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E44</xm:sqref>
+          <xm:sqref>E45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6C517204-12FA-4DB9-9CD7-F3607D2B852E}">
@@ -11583,10 +12399,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E45</xm:sqref>
+          <xm:sqref>E46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="101" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="126" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11602,10 +12418,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I51 J53:BL53</xm:sqref>
+          <xm:sqref>I52 J54:BL54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="136" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="161" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11621,29 +12437,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I48:I50 J50:BL52 I8:BL19 I20:I45 J20:BL47</xm:sqref>
+          <xm:sqref>I49:I51 J51:BL53 I8:BL19 I20:I46 J20:BL24 J26:BL48 J25:W25 Y25:AE25 AG25:BL25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{DE05B366-AD41-4E05-B480-F396DE8AD3D4}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I46 J48:BL48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{3EB0BB47-E188-4716-B47F-ADBD4EA21EBD}">
+          <x14:cfRule type="iconSet" priority="56" id="{DE05B366-AD41-4E05-B480-F396DE8AD3D4}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11660,6 +12457,44 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I47 J49:BL49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="48" id="{3EB0BB47-E188-4716-B47F-ADBD4EA21EBD}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I48 J50:BL50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{EF969660-C15B-8243-BF75-9281A66FFC36}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AF25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
